--- a/Data/EC/EC collection.xlsx
+++ b/Data/EC/EC collection.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="11760"/>
@@ -14,12 +14,12 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>ESI-INDU</t>
   </si>
@@ -188,11 +188,947 @@
   <si>
     <t>ECCS12</t>
   </si>
+  <si>
+    <t>1990-01</t>
+  </si>
+  <si>
+    <t>1990-02</t>
+  </si>
+  <si>
+    <t>1990-03</t>
+  </si>
+  <si>
+    <t>1990-04</t>
+  </si>
+  <si>
+    <t>1990-05</t>
+  </si>
+  <si>
+    <t>1990-06</t>
+  </si>
+  <si>
+    <t>1990-07</t>
+  </si>
+  <si>
+    <t>1990-08</t>
+  </si>
+  <si>
+    <t>1990-09</t>
+  </si>
+  <si>
+    <t>1990-10</t>
+  </si>
+  <si>
+    <t>1990-11</t>
+  </si>
+  <si>
+    <t>1990-12</t>
+  </si>
+  <si>
+    <t>1991-01</t>
+  </si>
+  <si>
+    <t>1991-02</t>
+  </si>
+  <si>
+    <t>1991-03</t>
+  </si>
+  <si>
+    <t>1991-04</t>
+  </si>
+  <si>
+    <t>1991-05</t>
+  </si>
+  <si>
+    <t>1991-06</t>
+  </si>
+  <si>
+    <t>1991-07</t>
+  </si>
+  <si>
+    <t>1991-08</t>
+  </si>
+  <si>
+    <t>1991-09</t>
+  </si>
+  <si>
+    <t>1991-10</t>
+  </si>
+  <si>
+    <t>1991-11</t>
+  </si>
+  <si>
+    <t>1991-12</t>
+  </si>
+  <si>
+    <t>1992-01</t>
+  </si>
+  <si>
+    <t>1992-02</t>
+  </si>
+  <si>
+    <t>1992-03</t>
+  </si>
+  <si>
+    <t>1992-04</t>
+  </si>
+  <si>
+    <t>1992-05</t>
+  </si>
+  <si>
+    <t>1992-06</t>
+  </si>
+  <si>
+    <t>1992-07</t>
+  </si>
+  <si>
+    <t>1992-08</t>
+  </si>
+  <si>
+    <t>1992-09</t>
+  </si>
+  <si>
+    <t>1992-10</t>
+  </si>
+  <si>
+    <t>1992-11</t>
+  </si>
+  <si>
+    <t>1992-12</t>
+  </si>
+  <si>
+    <t>1993-01</t>
+  </si>
+  <si>
+    <t>1993-02</t>
+  </si>
+  <si>
+    <t>1993-03</t>
+  </si>
+  <si>
+    <t>1993-04</t>
+  </si>
+  <si>
+    <t>1993-05</t>
+  </si>
+  <si>
+    <t>1993-06</t>
+  </si>
+  <si>
+    <t>1993-07</t>
+  </si>
+  <si>
+    <t>1993-08</t>
+  </si>
+  <si>
+    <t>1993-09</t>
+  </si>
+  <si>
+    <t>1993-10</t>
+  </si>
+  <si>
+    <t>1993-11</t>
+  </si>
+  <si>
+    <t>1993-12</t>
+  </si>
+  <si>
+    <t>1994-01</t>
+  </si>
+  <si>
+    <t>1994-02</t>
+  </si>
+  <si>
+    <t>1994-03</t>
+  </si>
+  <si>
+    <t>1994-04</t>
+  </si>
+  <si>
+    <t>1994-05</t>
+  </si>
+  <si>
+    <t>1994-06</t>
+  </si>
+  <si>
+    <t>1994-07</t>
+  </si>
+  <si>
+    <t>1994-08</t>
+  </si>
+  <si>
+    <t>1994-09</t>
+  </si>
+  <si>
+    <t>1994-10</t>
+  </si>
+  <si>
+    <t>1994-11</t>
+  </si>
+  <si>
+    <t>1994-12</t>
+  </si>
+  <si>
+    <t>1995-01</t>
+  </si>
+  <si>
+    <t>1995-02</t>
+  </si>
+  <si>
+    <t>1995-03</t>
+  </si>
+  <si>
+    <t>1995-04</t>
+  </si>
+  <si>
+    <t>1995-05</t>
+  </si>
+  <si>
+    <t>1995-06</t>
+  </si>
+  <si>
+    <t>1995-07</t>
+  </si>
+  <si>
+    <t>1995-08</t>
+  </si>
+  <si>
+    <t>1995-09</t>
+  </si>
+  <si>
+    <t>1995-10</t>
+  </si>
+  <si>
+    <t>1995-11</t>
+  </si>
+  <si>
+    <t>1995-12</t>
+  </si>
+  <si>
+    <t>1996-01</t>
+  </si>
+  <si>
+    <t>1996-02</t>
+  </si>
+  <si>
+    <t>1996-03</t>
+  </si>
+  <si>
+    <t>1996-04</t>
+  </si>
+  <si>
+    <t>1996-05</t>
+  </si>
+  <si>
+    <t>1996-06</t>
+  </si>
+  <si>
+    <t>1996-07</t>
+  </si>
+  <si>
+    <t>1996-08</t>
+  </si>
+  <si>
+    <t>1996-09</t>
+  </si>
+  <si>
+    <t>1996-10</t>
+  </si>
+  <si>
+    <t>1996-11</t>
+  </si>
+  <si>
+    <t>1996-12</t>
+  </si>
+  <si>
+    <t>1997-01</t>
+  </si>
+  <si>
+    <t>1997-02</t>
+  </si>
+  <si>
+    <t>1997-03</t>
+  </si>
+  <si>
+    <t>1997-04</t>
+  </si>
+  <si>
+    <t>1997-05</t>
+  </si>
+  <si>
+    <t>1997-06</t>
+  </si>
+  <si>
+    <t>1997-07</t>
+  </si>
+  <si>
+    <t>1997-08</t>
+  </si>
+  <si>
+    <t>1997-09</t>
+  </si>
+  <si>
+    <t>1997-10</t>
+  </si>
+  <si>
+    <t>1997-11</t>
+  </si>
+  <si>
+    <t>1997-12</t>
+  </si>
+  <si>
+    <t>1998-01</t>
+  </si>
+  <si>
+    <t>1998-02</t>
+  </si>
+  <si>
+    <t>1998-03</t>
+  </si>
+  <si>
+    <t>1998-04</t>
+  </si>
+  <si>
+    <t>1998-05</t>
+  </si>
+  <si>
+    <t>1998-06</t>
+  </si>
+  <si>
+    <t>1998-07</t>
+  </si>
+  <si>
+    <t>1998-08</t>
+  </si>
+  <si>
+    <t>1998-09</t>
+  </si>
+  <si>
+    <t>1998-10</t>
+  </si>
+  <si>
+    <t>1998-11</t>
+  </si>
+  <si>
+    <t>1998-12</t>
+  </si>
+  <si>
+    <t>1999-01</t>
+  </si>
+  <si>
+    <t>1999-02</t>
+  </si>
+  <si>
+    <t>1999-03</t>
+  </si>
+  <si>
+    <t>1999-04</t>
+  </si>
+  <si>
+    <t>1999-05</t>
+  </si>
+  <si>
+    <t>1999-06</t>
+  </si>
+  <si>
+    <t>1999-07</t>
+  </si>
+  <si>
+    <t>1999-08</t>
+  </si>
+  <si>
+    <t>1999-09</t>
+  </si>
+  <si>
+    <t>1999-10</t>
+  </si>
+  <si>
+    <t>1999-11</t>
+  </si>
+  <si>
+    <t>1999-12</t>
+  </si>
+  <si>
+    <t>2000-01</t>
+  </si>
+  <si>
+    <t>2000-02</t>
+  </si>
+  <si>
+    <t>2000-03</t>
+  </si>
+  <si>
+    <t>2000-04</t>
+  </si>
+  <si>
+    <t>2000-05</t>
+  </si>
+  <si>
+    <t>2000-06</t>
+  </si>
+  <si>
+    <t>2000-07</t>
+  </si>
+  <si>
+    <t>2000-08</t>
+  </si>
+  <si>
+    <t>2000-09</t>
+  </si>
+  <si>
+    <t>2000-10</t>
+  </si>
+  <si>
+    <t>2000-11</t>
+  </si>
+  <si>
+    <t>2000-12</t>
+  </si>
+  <si>
+    <t>2001-01</t>
+  </si>
+  <si>
+    <t>2001-02</t>
+  </si>
+  <si>
+    <t>2001-03</t>
+  </si>
+  <si>
+    <t>2001-04</t>
+  </si>
+  <si>
+    <t>2001-05</t>
+  </si>
+  <si>
+    <t>2001-06</t>
+  </si>
+  <si>
+    <t>2001-07</t>
+  </si>
+  <si>
+    <t>2001-08</t>
+  </si>
+  <si>
+    <t>2001-09</t>
+  </si>
+  <si>
+    <t>2001-10</t>
+  </si>
+  <si>
+    <t>2001-11</t>
+  </si>
+  <si>
+    <t>2001-12</t>
+  </si>
+  <si>
+    <t>2002-01</t>
+  </si>
+  <si>
+    <t>2002-02</t>
+  </si>
+  <si>
+    <t>2002-03</t>
+  </si>
+  <si>
+    <t>2002-04</t>
+  </si>
+  <si>
+    <t>2002-05</t>
+  </si>
+  <si>
+    <t>2002-06</t>
+  </si>
+  <si>
+    <t>2002-07</t>
+  </si>
+  <si>
+    <t>2002-08</t>
+  </si>
+  <si>
+    <t>2002-09</t>
+  </si>
+  <si>
+    <t>2002-10</t>
+  </si>
+  <si>
+    <t>2002-11</t>
+  </si>
+  <si>
+    <t>2002-12</t>
+  </si>
+  <si>
+    <t>2003-01</t>
+  </si>
+  <si>
+    <t>2003-02</t>
+  </si>
+  <si>
+    <t>2003-03</t>
+  </si>
+  <si>
+    <t>2003-04</t>
+  </si>
+  <si>
+    <t>2003-05</t>
+  </si>
+  <si>
+    <t>2003-06</t>
+  </si>
+  <si>
+    <t>2003-07</t>
+  </si>
+  <si>
+    <t>2003-08</t>
+  </si>
+  <si>
+    <t>2003-09</t>
+  </si>
+  <si>
+    <t>2003-10</t>
+  </si>
+  <si>
+    <t>2003-11</t>
+  </si>
+  <si>
+    <t>2003-12</t>
+  </si>
+  <si>
+    <t>2004-01</t>
+  </si>
+  <si>
+    <t>2004-02</t>
+  </si>
+  <si>
+    <t>2004-03</t>
+  </si>
+  <si>
+    <t>2004-04</t>
+  </si>
+  <si>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2004-06</t>
+  </si>
+  <si>
+    <t>2004-07</t>
+  </si>
+  <si>
+    <t>2004-08</t>
+  </si>
+  <si>
+    <t>2004-09</t>
+  </si>
+  <si>
+    <t>2004-10</t>
+  </si>
+  <si>
+    <t>2004-11</t>
+  </si>
+  <si>
+    <t>2004-12</t>
+  </si>
+  <si>
+    <t>2005-01</t>
+  </si>
+  <si>
+    <t>2005-02</t>
+  </si>
+  <si>
+    <t>2005-03</t>
+  </si>
+  <si>
+    <t>2005-04</t>
+  </si>
+  <si>
+    <t>2005-05</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
+    <t>2005-07</t>
+  </si>
+  <si>
+    <t>2005-08</t>
+  </si>
+  <si>
+    <t>2005-09</t>
+  </si>
+  <si>
+    <t>2005-10</t>
+  </si>
+  <si>
+    <t>2005-11</t>
+  </si>
+  <si>
+    <t>2005-12</t>
+  </si>
+  <si>
+    <t>2006-01</t>
+  </si>
+  <si>
+    <t>2006-02</t>
+  </si>
+  <si>
+    <t>2006-03</t>
+  </si>
+  <si>
+    <t>2006-04</t>
+  </si>
+  <si>
+    <t>2006-05</t>
+  </si>
+  <si>
+    <t>2006-06</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2006-08</t>
+  </si>
+  <si>
+    <t>2006-09</t>
+  </si>
+  <si>
+    <t>2006-10</t>
+  </si>
+  <si>
+    <t>2006-11</t>
+  </si>
+  <si>
+    <t>2006-12</t>
+  </si>
+  <si>
+    <t>2007-01</t>
+  </si>
+  <si>
+    <t>2007-02</t>
+  </si>
+  <si>
+    <t>2007-03</t>
+  </si>
+  <si>
+    <t>2007-04</t>
+  </si>
+  <si>
+    <t>2007-05</t>
+  </si>
+  <si>
+    <t>2007-06</t>
+  </si>
+  <si>
+    <t>2007-07</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2007-09</t>
+  </si>
+  <si>
+    <t>2007-10</t>
+  </si>
+  <si>
+    <t>2007-11</t>
+  </si>
+  <si>
+    <t>2007-12</t>
+  </si>
+  <si>
+    <t>2008-01</t>
+  </si>
+  <si>
+    <t>2008-02</t>
+  </si>
+  <si>
+    <t>2008-03</t>
+  </si>
+  <si>
+    <t>2008-04</t>
+  </si>
+  <si>
+    <t>2008-05</t>
+  </si>
+  <si>
+    <t>2008-06</t>
+  </si>
+  <si>
+    <t>2008-07</t>
+  </si>
+  <si>
+    <t>2008-08</t>
+  </si>
+  <si>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2008-10</t>
+  </si>
+  <si>
+    <t>2008-11</t>
+  </si>
+  <si>
+    <t>2008-12</t>
+  </si>
+  <si>
+    <t>2009-01</t>
+  </si>
+  <si>
+    <t>2009-02</t>
+  </si>
+  <si>
+    <t>2009-03</t>
+  </si>
+  <si>
+    <t>2009-04</t>
+  </si>
+  <si>
+    <t>2009-05</t>
+  </si>
+  <si>
+    <t>2009-06</t>
+  </si>
+  <si>
+    <t>2009-07</t>
+  </si>
+  <si>
+    <t>2009-08</t>
+  </si>
+  <si>
+    <t>2009-09</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>2009-11</t>
+  </si>
+  <si>
+    <t>2009-12</t>
+  </si>
+  <si>
+    <t>2010-01</t>
+  </si>
+  <si>
+    <t>2010-02</t>
+  </si>
+  <si>
+    <t>2010-03</t>
+  </si>
+  <si>
+    <t>2010-04</t>
+  </si>
+  <si>
+    <t>2010-05</t>
+  </si>
+  <si>
+    <t>2010-06</t>
+  </si>
+  <si>
+    <t>2010-07</t>
+  </si>
+  <si>
+    <t>2010-08</t>
+  </si>
+  <si>
+    <t>2010-09</t>
+  </si>
+  <si>
+    <t>2010-10</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2010-12</t>
+  </si>
+  <si>
+    <t>2011-01</t>
+  </si>
+  <si>
+    <t>2011-02</t>
+  </si>
+  <si>
+    <t>2011-03</t>
+  </si>
+  <si>
+    <t>2011-04</t>
+  </si>
+  <si>
+    <t>2011-05</t>
+  </si>
+  <si>
+    <t>2011-06</t>
+  </si>
+  <si>
+    <t>2011-07</t>
+  </si>
+  <si>
+    <t>2011-08</t>
+  </si>
+  <si>
+    <t>2011-09</t>
+  </si>
+  <si>
+    <t>2011-10</t>
+  </si>
+  <si>
+    <t>2011-11</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2012-01</t>
+  </si>
+  <si>
+    <t>2012-02</t>
+  </si>
+  <si>
+    <t>2012-03</t>
+  </si>
+  <si>
+    <t>2012-04</t>
+  </si>
+  <si>
+    <t>2012-05</t>
+  </si>
+  <si>
+    <t>2012-06</t>
+  </si>
+  <si>
+    <t>2012-07</t>
+  </si>
+  <si>
+    <t>2012-08</t>
+  </si>
+  <si>
+    <t>2012-09</t>
+  </si>
+  <si>
+    <t>2012-10</t>
+  </si>
+  <si>
+    <t>2012-11</t>
+  </si>
+  <si>
+    <t>2012-12</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>2013-02</t>
+  </si>
+  <si>
+    <t>2013-03</t>
+  </si>
+  <si>
+    <t>2013-04</t>
+  </si>
+  <si>
+    <t>2013-05</t>
+  </si>
+  <si>
+    <t>2013-06</t>
+  </si>
+  <si>
+    <t>2013-07</t>
+  </si>
+  <si>
+    <t>2013-08</t>
+  </si>
+  <si>
+    <t>2013-09</t>
+  </si>
+  <si>
+    <t>2013-10</t>
+  </si>
+  <si>
+    <t>2013-11</t>
+  </si>
+  <si>
+    <t>2013-12</t>
+  </si>
+  <si>
+    <t>2014-01</t>
+  </si>
+  <si>
+    <t>2014-02</t>
+  </si>
+  <si>
+    <t>2014-03</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2014-05</t>
+  </si>
+  <si>
+    <t>2014-06</t>
+  </si>
+  <si>
+    <t>2014-07</t>
+  </si>
+  <si>
+    <t>2014-08</t>
+  </si>
+  <si>
+    <t>2014-09</t>
+  </si>
+  <si>
+    <t>2014-10</t>
+  </si>
+  <si>
+    <t>2014-11</t>
+  </si>
+  <si>
+    <t>2014-12</t>
+  </si>
+  <si>
+    <t>2015-01</t>
+  </si>
+  <si>
+    <t>2015-02</t>
+  </si>
+  <si>
+    <t>2015-03</t>
+  </si>
+  <si>
+    <t>2015-04</t>
+  </si>
+  <si>
+    <t>2015-05</t>
+  </si>
+  <si>
+    <t>2015-06</t>
+  </si>
+  <si>
+    <t>2015-07</t>
+  </si>
+  <si>
+    <t>2015-08</t>
+  </si>
+  <si>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>2015-10</t>
+  </si>
+  <si>
+    <t>2015-11</t>
+  </si>
+  <si>
+    <t>2015-12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -266,7 +1202,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Index"/>
@@ -6350,7 +7286,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Index"/>
@@ -18795,7 +19731,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Index"/>
@@ -18814,9 +19750,6 @@
           </cell>
         </row>
         <row r="62">
-          <cell r="A62">
-            <v>32904</v>
-          </cell>
           <cell r="AS62">
             <v>8.1999999999999993</v>
           </cell>
@@ -18834,9 +19767,6 @@
           </cell>
         </row>
         <row r="63">
-          <cell r="A63">
-            <v>32932</v>
-          </cell>
           <cell r="AS63">
             <v>7.7</v>
           </cell>
@@ -18854,9 +19784,6 @@
           </cell>
         </row>
         <row r="64">
-          <cell r="A64">
-            <v>32963</v>
-          </cell>
           <cell r="AS64">
             <v>9.4</v>
           </cell>
@@ -18874,9 +19801,6 @@
           </cell>
         </row>
         <row r="65">
-          <cell r="A65">
-            <v>32993</v>
-          </cell>
           <cell r="AS65">
             <v>9.6999999999999993</v>
           </cell>
@@ -18894,9 +19818,6 @@
           </cell>
         </row>
         <row r="66">
-          <cell r="A66">
-            <v>33024</v>
-          </cell>
           <cell r="AS66">
             <v>8.8000000000000007</v>
           </cell>
@@ -18914,9 +19835,6 @@
           </cell>
         </row>
         <row r="67">
-          <cell r="A67">
-            <v>33054</v>
-          </cell>
           <cell r="AS67">
             <v>8.1</v>
           </cell>
@@ -18934,9 +19852,6 @@
           </cell>
         </row>
         <row r="68">
-          <cell r="A68">
-            <v>33085</v>
-          </cell>
           <cell r="AS68">
             <v>10.6</v>
           </cell>
@@ -18954,9 +19869,6 @@
           </cell>
         </row>
         <row r="69">
-          <cell r="A69">
-            <v>33116</v>
-          </cell>
           <cell r="AS69">
             <v>10</v>
           </cell>
@@ -18974,9 +19886,6 @@
           </cell>
         </row>
         <row r="70">
-          <cell r="A70">
-            <v>33146</v>
-          </cell>
           <cell r="AS70">
             <v>12.2</v>
           </cell>
@@ -18994,9 +19903,6 @@
           </cell>
         </row>
         <row r="71">
-          <cell r="A71">
-            <v>33177</v>
-          </cell>
           <cell r="AS71">
             <v>11</v>
           </cell>
@@ -19014,9 +19920,6 @@
           </cell>
         </row>
         <row r="72">
-          <cell r="A72">
-            <v>33207</v>
-          </cell>
           <cell r="AS72">
             <v>10.9</v>
           </cell>
@@ -19034,9 +19937,6 @@
           </cell>
         </row>
         <row r="73">
-          <cell r="A73">
-            <v>33238</v>
-          </cell>
           <cell r="AS73">
             <v>10</v>
           </cell>
@@ -19054,9 +19954,6 @@
           </cell>
         </row>
         <row r="74">
-          <cell r="A74">
-            <v>33269</v>
-          </cell>
           <cell r="AS74">
             <v>9.4</v>
           </cell>
@@ -19074,9 +19971,6 @@
           </cell>
         </row>
         <row r="75">
-          <cell r="A75">
-            <v>33297</v>
-          </cell>
           <cell r="AS75">
             <v>6.6</v>
           </cell>
@@ -19094,9 +19988,6 @@
           </cell>
         </row>
         <row r="76">
-          <cell r="A76">
-            <v>33328</v>
-          </cell>
           <cell r="AS76">
             <v>3.8</v>
           </cell>
@@ -19114,9 +20005,6 @@
           </cell>
         </row>
         <row r="77">
-          <cell r="A77">
-            <v>33358</v>
-          </cell>
           <cell r="AS77">
             <v>2.2000000000000002</v>
           </cell>
@@ -19134,9 +20022,6 @@
           </cell>
         </row>
         <row r="78">
-          <cell r="A78">
-            <v>33389</v>
-          </cell>
           <cell r="AS78">
             <v>1.1000000000000001</v>
           </cell>
@@ -19154,9 +20039,6 @@
           </cell>
         </row>
         <row r="79">
-          <cell r="A79">
-            <v>33419</v>
-          </cell>
           <cell r="AS79">
             <v>-1.2</v>
           </cell>
@@ -19174,9 +20056,6 @@
           </cell>
         </row>
         <row r="80">
-          <cell r="A80">
-            <v>33450</v>
-          </cell>
           <cell r="AS80">
             <v>-3.2</v>
           </cell>
@@ -19194,9 +20073,6 @@
           </cell>
         </row>
         <row r="81">
-          <cell r="A81">
-            <v>33481</v>
-          </cell>
           <cell r="AS81">
             <v>-4.4000000000000004</v>
           </cell>
@@ -19214,9 +20090,6 @@
           </cell>
         </row>
         <row r="82">
-          <cell r="A82">
-            <v>33511</v>
-          </cell>
           <cell r="AS82">
             <v>-6</v>
           </cell>
@@ -19234,9 +20107,6 @@
           </cell>
         </row>
         <row r="83">
-          <cell r="A83">
-            <v>33542</v>
-          </cell>
           <cell r="AS83">
             <v>-6.4</v>
           </cell>
@@ -19254,9 +20124,6 @@
           </cell>
         </row>
         <row r="84">
-          <cell r="A84">
-            <v>33572</v>
-          </cell>
           <cell r="AS84">
             <v>-7.4</v>
           </cell>
@@ -19274,9 +20141,6 @@
           </cell>
         </row>
         <row r="85">
-          <cell r="A85">
-            <v>33603</v>
-          </cell>
           <cell r="AS85">
             <v>-7.8</v>
           </cell>
@@ -19294,9 +20158,6 @@
           </cell>
         </row>
         <row r="86">
-          <cell r="A86">
-            <v>33634</v>
-          </cell>
           <cell r="AS86">
             <v>-7.5</v>
           </cell>
@@ -19314,9 +20175,6 @@
           </cell>
         </row>
         <row r="87">
-          <cell r="A87">
-            <v>33663</v>
-          </cell>
           <cell r="AS87">
             <v>-8.6</v>
           </cell>
@@ -19334,9 +20192,6 @@
           </cell>
         </row>
         <row r="88">
-          <cell r="A88">
-            <v>33694</v>
-          </cell>
           <cell r="AS88">
             <v>-10</v>
           </cell>
@@ -19354,9 +20209,6 @@
           </cell>
         </row>
         <row r="89">
-          <cell r="A89">
-            <v>33724</v>
-          </cell>
           <cell r="AS89">
             <v>-11.2</v>
           </cell>
@@ -19374,9 +20226,6 @@
           </cell>
         </row>
         <row r="90">
-          <cell r="A90">
-            <v>33755</v>
-          </cell>
           <cell r="AS90">
             <v>-12.6</v>
           </cell>
@@ -19394,9 +20243,6 @@
           </cell>
         </row>
         <row r="91">
-          <cell r="A91">
-            <v>33785</v>
-          </cell>
           <cell r="AS91">
             <v>-13.3</v>
           </cell>
@@ -19414,9 +20260,6 @@
           </cell>
         </row>
         <row r="92">
-          <cell r="A92">
-            <v>33816</v>
-          </cell>
           <cell r="AS92">
             <v>-14.1</v>
           </cell>
@@ -19434,9 +20277,6 @@
           </cell>
         </row>
         <row r="93">
-          <cell r="A93">
-            <v>33847</v>
-          </cell>
           <cell r="AS93">
             <v>-18.2</v>
           </cell>
@@ -19454,9 +20294,6 @@
           </cell>
         </row>
         <row r="94">
-          <cell r="A94">
-            <v>33877</v>
-          </cell>
           <cell r="AS94">
             <v>-23.1</v>
           </cell>
@@ -19474,9 +20311,6 @@
           </cell>
         </row>
         <row r="95">
-          <cell r="A95">
-            <v>33908</v>
-          </cell>
           <cell r="AS95">
             <v>-28</v>
           </cell>
@@ -19494,9 +20328,6 @@
           </cell>
         </row>
         <row r="96">
-          <cell r="A96">
-            <v>33938</v>
-          </cell>
           <cell r="AS96">
             <v>-32</v>
           </cell>
@@ -19514,9 +20345,6 @@
           </cell>
         </row>
         <row r="97">
-          <cell r="A97">
-            <v>33969</v>
-          </cell>
           <cell r="AS97">
             <v>-31.2</v>
           </cell>
@@ -19534,9 +20362,6 @@
           </cell>
         </row>
         <row r="98">
-          <cell r="A98">
-            <v>34000</v>
-          </cell>
           <cell r="AS98">
             <v>-30.5</v>
           </cell>
@@ -19554,9 +20379,6 @@
           </cell>
         </row>
         <row r="99">
-          <cell r="A99">
-            <v>34028</v>
-          </cell>
           <cell r="AS99">
             <v>-32</v>
           </cell>
@@ -19574,9 +20396,6 @@
           </cell>
         </row>
         <row r="100">
-          <cell r="A100">
-            <v>34059</v>
-          </cell>
           <cell r="AS100">
             <v>-33.1</v>
           </cell>
@@ -19594,9 +20413,6 @@
           </cell>
         </row>
         <row r="101">
-          <cell r="A101">
-            <v>34089</v>
-          </cell>
           <cell r="AS101">
             <v>-33.6</v>
           </cell>
@@ -19614,9 +20430,6 @@
           </cell>
         </row>
         <row r="102">
-          <cell r="A102">
-            <v>34120</v>
-          </cell>
           <cell r="AS102">
             <v>-32.5</v>
           </cell>
@@ -19634,9 +20447,6 @@
           </cell>
         </row>
         <row r="103">
-          <cell r="A103">
-            <v>34150</v>
-          </cell>
           <cell r="AS103">
             <v>-32.1</v>
           </cell>
@@ -19654,9 +20464,6 @@
           </cell>
         </row>
         <row r="104">
-          <cell r="A104">
-            <v>34181</v>
-          </cell>
           <cell r="AS104">
             <v>-32.700000000000003</v>
           </cell>
@@ -19674,9 +20481,6 @@
           </cell>
         </row>
         <row r="105">
-          <cell r="A105">
-            <v>34212</v>
-          </cell>
           <cell r="AS105">
             <v>-30.3</v>
           </cell>
@@ -19694,9 +20498,6 @@
           </cell>
         </row>
         <row r="106">
-          <cell r="A106">
-            <v>34242</v>
-          </cell>
           <cell r="AS106">
             <v>-29.4</v>
           </cell>
@@ -19714,9 +20515,6 @@
           </cell>
         </row>
         <row r="107">
-          <cell r="A107">
-            <v>34273</v>
-          </cell>
           <cell r="AS107">
             <v>-26.5</v>
           </cell>
@@ -19734,9 +20532,6 @@
           </cell>
         </row>
         <row r="108">
-          <cell r="A108">
-            <v>34303</v>
-          </cell>
           <cell r="AS108">
             <v>-25.5</v>
           </cell>
@@ -19754,9 +20549,6 @@
           </cell>
         </row>
         <row r="109">
-          <cell r="A109">
-            <v>34334</v>
-          </cell>
           <cell r="AS109">
             <v>-24.6</v>
           </cell>
@@ -19774,9 +20566,6 @@
           </cell>
         </row>
         <row r="110">
-          <cell r="A110">
-            <v>34365</v>
-          </cell>
           <cell r="AS110">
             <v>-22.1</v>
           </cell>
@@ -19794,9 +20583,6 @@
           </cell>
         </row>
         <row r="111">
-          <cell r="A111">
-            <v>34393</v>
-          </cell>
           <cell r="AS111">
             <v>-18.100000000000001</v>
           </cell>
@@ -19814,9 +20600,6 @@
           </cell>
         </row>
         <row r="112">
-          <cell r="A112">
-            <v>34424</v>
-          </cell>
           <cell r="AS112">
             <v>-17.2</v>
           </cell>
@@ -19834,9 +20617,6 @@
           </cell>
         </row>
         <row r="113">
-          <cell r="A113">
-            <v>34454</v>
-          </cell>
           <cell r="AS113">
             <v>-14.5</v>
           </cell>
@@ -19854,9 +20634,6 @@
           </cell>
         </row>
         <row r="114">
-          <cell r="A114">
-            <v>34485</v>
-          </cell>
           <cell r="AS114">
             <v>-12.1</v>
           </cell>
@@ -19874,9 +20651,6 @@
           </cell>
         </row>
         <row r="115">
-          <cell r="A115">
-            <v>34515</v>
-          </cell>
           <cell r="AS115">
             <v>-9.9</v>
           </cell>
@@ -19894,9 +20668,6 @@
           </cell>
         </row>
         <row r="116">
-          <cell r="A116">
-            <v>34546</v>
-          </cell>
           <cell r="AS116">
             <v>-8.3000000000000007</v>
           </cell>
@@ -19914,9 +20685,6 @@
           </cell>
         </row>
         <row r="117">
-          <cell r="A117">
-            <v>34577</v>
-          </cell>
           <cell r="AS117">
             <v>-6.7</v>
           </cell>
@@ -19934,9 +20702,6 @@
           </cell>
         </row>
         <row r="118">
-          <cell r="A118">
-            <v>34607</v>
-          </cell>
           <cell r="AS118">
             <v>-3</v>
           </cell>
@@ -19954,9 +20719,6 @@
           </cell>
         </row>
         <row r="119">
-          <cell r="A119">
-            <v>34638</v>
-          </cell>
           <cell r="AS119">
             <v>0.1</v>
           </cell>
@@ -19974,9 +20736,6 @@
           </cell>
         </row>
         <row r="120">
-          <cell r="A120">
-            <v>34668</v>
-          </cell>
           <cell r="AS120">
             <v>1</v>
           </cell>
@@ -19994,9 +20753,6 @@
           </cell>
         </row>
         <row r="121">
-          <cell r="A121">
-            <v>34699</v>
-          </cell>
           <cell r="AS121">
             <v>3.3</v>
           </cell>
@@ -20014,9 +20770,6 @@
           </cell>
         </row>
         <row r="122">
-          <cell r="A122">
-            <v>34730</v>
-          </cell>
           <cell r="AS122">
             <v>2.6</v>
           </cell>
@@ -20034,9 +20787,6 @@
           </cell>
         </row>
         <row r="123">
-          <cell r="A123">
-            <v>34758</v>
-          </cell>
           <cell r="AS123">
             <v>2.9</v>
           </cell>
@@ -20054,9 +20804,6 @@
           </cell>
         </row>
         <row r="124">
-          <cell r="A124">
-            <v>34789</v>
-          </cell>
           <cell r="AS124">
             <v>1.1000000000000001</v>
           </cell>
@@ -20074,9 +20821,6 @@
           </cell>
         </row>
         <row r="125">
-          <cell r="A125">
-            <v>34819</v>
-          </cell>
           <cell r="AS125">
             <v>-1.7</v>
           </cell>
@@ -20097,9 +20841,6 @@
           </cell>
         </row>
         <row r="126">
-          <cell r="A126">
-            <v>34850</v>
-          </cell>
           <cell r="AS126">
             <v>-2.4</v>
           </cell>
@@ -20120,9 +20861,6 @@
           </cell>
         </row>
         <row r="127">
-          <cell r="A127">
-            <v>34880</v>
-          </cell>
           <cell r="AS127">
             <v>-3.5</v>
           </cell>
@@ -20143,9 +20881,6 @@
           </cell>
         </row>
         <row r="128">
-          <cell r="A128">
-            <v>34911</v>
-          </cell>
           <cell r="AS128">
             <v>-5.3</v>
           </cell>
@@ -20166,9 +20901,6 @@
           </cell>
         </row>
         <row r="129">
-          <cell r="A129">
-            <v>34942</v>
-          </cell>
           <cell r="AS129">
             <v>-6.6</v>
           </cell>
@@ -20189,9 +20921,6 @@
           </cell>
         </row>
         <row r="130">
-          <cell r="A130">
-            <v>34972</v>
-          </cell>
           <cell r="AS130">
             <v>-9.1999999999999993</v>
           </cell>
@@ -20212,9 +20941,6 @@
           </cell>
         </row>
         <row r="131">
-          <cell r="A131">
-            <v>35003</v>
-          </cell>
           <cell r="AS131">
             <v>-9.4</v>
           </cell>
@@ -20235,9 +20961,6 @@
           </cell>
         </row>
         <row r="132">
-          <cell r="A132">
-            <v>35033</v>
-          </cell>
           <cell r="AS132">
             <v>-11</v>
           </cell>
@@ -20258,9 +20981,6 @@
           </cell>
         </row>
         <row r="133">
-          <cell r="A133">
-            <v>35064</v>
-          </cell>
           <cell r="AS133">
             <v>-12.9</v>
           </cell>
@@ -20281,9 +21001,6 @@
           </cell>
         </row>
         <row r="134">
-          <cell r="A134">
-            <v>35095</v>
-          </cell>
           <cell r="AS134">
             <v>-15.7</v>
           </cell>
@@ -20304,9 +21021,6 @@
           </cell>
         </row>
         <row r="135">
-          <cell r="A135">
-            <v>35124</v>
-          </cell>
           <cell r="AS135">
             <v>-19.399999999999999</v>
           </cell>
@@ -20327,9 +21041,6 @@
           </cell>
         </row>
         <row r="136">
-          <cell r="A136">
-            <v>35155</v>
-          </cell>
           <cell r="AS136">
             <v>-20.8</v>
           </cell>
@@ -20350,9 +21061,6 @@
           </cell>
         </row>
         <row r="137">
-          <cell r="A137">
-            <v>35185</v>
-          </cell>
           <cell r="AS137">
             <v>-20.3</v>
           </cell>
@@ -20373,9 +21081,6 @@
           </cell>
         </row>
         <row r="138">
-          <cell r="A138">
-            <v>35216</v>
-          </cell>
           <cell r="AS138">
             <v>-22.2</v>
           </cell>
@@ -20396,9 +21101,6 @@
           </cell>
         </row>
         <row r="139">
-          <cell r="A139">
-            <v>35246</v>
-          </cell>
           <cell r="AS139">
             <v>-23.2</v>
           </cell>
@@ -20419,9 +21121,6 @@
           </cell>
         </row>
         <row r="140">
-          <cell r="A140">
-            <v>35277</v>
-          </cell>
           <cell r="AS140">
             <v>-21.5</v>
           </cell>
@@ -20442,9 +21141,6 @@
           </cell>
         </row>
         <row r="141">
-          <cell r="A141">
-            <v>35308</v>
-          </cell>
           <cell r="AS141">
             <v>-20.399999999999999</v>
           </cell>
@@ -20465,9 +21161,6 @@
           </cell>
         </row>
         <row r="142">
-          <cell r="A142">
-            <v>35338</v>
-          </cell>
           <cell r="AS142">
             <v>-18.899999999999999</v>
           </cell>
@@ -20488,9 +21181,6 @@
           </cell>
         </row>
         <row r="143">
-          <cell r="A143">
-            <v>35369</v>
-          </cell>
           <cell r="AS143">
             <v>-17.3</v>
           </cell>
@@ -20511,9 +21201,6 @@
           </cell>
         </row>
         <row r="144">
-          <cell r="A144">
-            <v>35399</v>
-          </cell>
           <cell r="AS144">
             <v>-17</v>
           </cell>
@@ -20534,9 +21221,6 @@
           </cell>
         </row>
         <row r="145">
-          <cell r="A145">
-            <v>35430</v>
-          </cell>
           <cell r="AS145">
             <v>-16.8</v>
           </cell>
@@ -20557,9 +21241,6 @@
           </cell>
         </row>
         <row r="146">
-          <cell r="A146">
-            <v>35461</v>
-          </cell>
           <cell r="AS146">
             <v>-13.9</v>
           </cell>
@@ -20580,9 +21261,6 @@
           </cell>
         </row>
         <row r="147">
-          <cell r="A147">
-            <v>35489</v>
-          </cell>
           <cell r="AS147">
             <v>-11.9</v>
           </cell>
@@ -20603,9 +21281,6 @@
           </cell>
         </row>
         <row r="148">
-          <cell r="A148">
-            <v>35520</v>
-          </cell>
           <cell r="AS148">
             <v>-10.3</v>
           </cell>
@@ -20626,9 +21301,6 @@
           </cell>
         </row>
         <row r="149">
-          <cell r="A149">
-            <v>35550</v>
-          </cell>
           <cell r="AS149">
             <v>-8.4</v>
           </cell>
@@ -20649,9 +21321,6 @@
           </cell>
         </row>
         <row r="150">
-          <cell r="A150">
-            <v>35581</v>
-          </cell>
           <cell r="AS150">
             <v>-8.6999999999999993</v>
           </cell>
@@ -20672,9 +21341,6 @@
           </cell>
         </row>
         <row r="151">
-          <cell r="A151">
-            <v>35611</v>
-          </cell>
           <cell r="AS151">
             <v>-7.3</v>
           </cell>
@@ -20695,9 +21361,6 @@
           </cell>
         </row>
         <row r="152">
-          <cell r="A152">
-            <v>35642</v>
-          </cell>
           <cell r="AS152">
             <v>-5</v>
           </cell>
@@ -20718,9 +21381,6 @@
           </cell>
         </row>
         <row r="153">
-          <cell r="A153">
-            <v>35673</v>
-          </cell>
           <cell r="AS153">
             <v>-2.6</v>
           </cell>
@@ -20741,9 +21401,6 @@
           </cell>
         </row>
         <row r="154">
-          <cell r="A154">
-            <v>35703</v>
-          </cell>
           <cell r="AS154">
             <v>-1.9</v>
           </cell>
@@ -20764,9 +21421,6 @@
           </cell>
         </row>
         <row r="155">
-          <cell r="A155">
-            <v>35734</v>
-          </cell>
           <cell r="AS155">
             <v>-3.6</v>
           </cell>
@@ -20787,9 +21441,6 @@
           </cell>
         </row>
         <row r="156">
-          <cell r="A156">
-            <v>35764</v>
-          </cell>
           <cell r="AS156">
             <v>-1.6</v>
           </cell>
@@ -20810,9 +21461,6 @@
           </cell>
         </row>
         <row r="157">
-          <cell r="A157">
-            <v>35795</v>
-          </cell>
           <cell r="AS157">
             <v>0</v>
           </cell>
@@ -20833,9 +21481,6 @@
           </cell>
         </row>
         <row r="158">
-          <cell r="A158">
-            <v>35826</v>
-          </cell>
           <cell r="AS158">
             <v>1.1000000000000001</v>
           </cell>
@@ -20856,9 +21501,6 @@
           </cell>
         </row>
         <row r="159">
-          <cell r="A159">
-            <v>35854</v>
-          </cell>
           <cell r="AS159">
             <v>0.4</v>
           </cell>
@@ -20879,9 +21521,6 @@
           </cell>
         </row>
         <row r="160">
-          <cell r="A160">
-            <v>35885</v>
-          </cell>
           <cell r="AS160">
             <v>2.2000000000000002</v>
           </cell>
@@ -20902,9 +21541,6 @@
           </cell>
         </row>
         <row r="161">
-          <cell r="A161">
-            <v>35915</v>
-          </cell>
           <cell r="AS161">
             <v>2.1</v>
           </cell>
@@ -20925,9 +21561,6 @@
           </cell>
         </row>
         <row r="162">
-          <cell r="A162">
-            <v>35946</v>
-          </cell>
           <cell r="AS162">
             <v>1.8</v>
           </cell>
@@ -20948,9 +21581,6 @@
           </cell>
         </row>
         <row r="163">
-          <cell r="A163">
-            <v>35976</v>
-          </cell>
           <cell r="AS163">
             <v>0.3</v>
           </cell>
@@ -20971,9 +21601,6 @@
           </cell>
         </row>
         <row r="164">
-          <cell r="A164">
-            <v>36007</v>
-          </cell>
           <cell r="AS164">
             <v>-1.8</v>
           </cell>
@@ -20994,9 +21621,6 @@
           </cell>
         </row>
         <row r="165">
-          <cell r="A165">
-            <v>36038</v>
-          </cell>
           <cell r="AS165">
             <v>-1.9</v>
           </cell>
@@ -21017,9 +21641,6 @@
           </cell>
         </row>
         <row r="166">
-          <cell r="A166">
-            <v>36068</v>
-          </cell>
           <cell r="AS166">
             <v>-4.9000000000000004</v>
           </cell>
@@ -21040,9 +21661,6 @@
           </cell>
         </row>
         <row r="167">
-          <cell r="A167">
-            <v>36099</v>
-          </cell>
           <cell r="AS167">
             <v>-9.4</v>
           </cell>
@@ -21063,9 +21681,6 @@
           </cell>
         </row>
         <row r="168">
-          <cell r="A168">
-            <v>36129</v>
-          </cell>
           <cell r="AS168">
             <v>-10.1</v>
           </cell>
@@ -21086,9 +21701,6 @@
           </cell>
         </row>
         <row r="169">
-          <cell r="A169">
-            <v>36160</v>
-          </cell>
           <cell r="AS169">
             <v>-12.9</v>
           </cell>
@@ -21109,9 +21721,6 @@
           </cell>
         </row>
         <row r="170">
-          <cell r="A170">
-            <v>36191</v>
-          </cell>
           <cell r="AS170">
             <v>-14.4</v>
           </cell>
@@ -21132,9 +21741,6 @@
           </cell>
         </row>
         <row r="171">
-          <cell r="A171">
-            <v>36219</v>
-          </cell>
           <cell r="AS171">
             <v>-15.8</v>
           </cell>
@@ -21155,9 +21761,6 @@
           </cell>
         </row>
         <row r="172">
-          <cell r="A172">
-            <v>36250</v>
-          </cell>
           <cell r="AS172">
             <v>-15.5</v>
           </cell>
@@ -21178,9 +21781,6 @@
           </cell>
         </row>
         <row r="173">
-          <cell r="A173">
-            <v>36280</v>
-          </cell>
           <cell r="AS173">
             <v>-15.3</v>
           </cell>
@@ -21201,9 +21801,6 @@
           </cell>
         </row>
         <row r="174">
-          <cell r="A174">
-            <v>36311</v>
-          </cell>
           <cell r="AS174">
             <v>-16.100000000000001</v>
           </cell>
@@ -21224,9 +21821,6 @@
           </cell>
         </row>
         <row r="175">
-          <cell r="A175">
-            <v>36341</v>
-          </cell>
           <cell r="AS175">
             <v>-14</v>
           </cell>
@@ -21247,9 +21841,6 @@
           </cell>
         </row>
         <row r="176">
-          <cell r="A176">
-            <v>36372</v>
-          </cell>
           <cell r="AS176">
             <v>-13.6</v>
           </cell>
@@ -21270,9 +21861,6 @@
           </cell>
         </row>
         <row r="177">
-          <cell r="A177">
-            <v>36403</v>
-          </cell>
           <cell r="AS177">
             <v>-13</v>
           </cell>
@@ -21293,9 +21881,6 @@
           </cell>
         </row>
         <row r="178">
-          <cell r="A178">
-            <v>36433</v>
-          </cell>
           <cell r="AS178">
             <v>-11.5</v>
           </cell>
@@ -21316,9 +21901,6 @@
           </cell>
         </row>
         <row r="179">
-          <cell r="A179">
-            <v>36464</v>
-          </cell>
           <cell r="AS179">
             <v>-9.6</v>
           </cell>
@@ -21339,9 +21921,6 @@
           </cell>
         </row>
         <row r="180">
-          <cell r="A180">
-            <v>36494</v>
-          </cell>
           <cell r="AS180">
             <v>-7.9</v>
           </cell>
@@ -21362,9 +21941,6 @@
           </cell>
         </row>
         <row r="181">
-          <cell r="A181">
-            <v>36525</v>
-          </cell>
           <cell r="AS181">
             <v>-5.8</v>
           </cell>
@@ -21385,9 +21961,6 @@
           </cell>
         </row>
         <row r="182">
-          <cell r="A182">
-            <v>36556</v>
-          </cell>
           <cell r="AS182">
             <v>-6.1</v>
           </cell>
@@ -21408,9 +21981,6 @@
           </cell>
         </row>
         <row r="183">
-          <cell r="A183">
-            <v>36585</v>
-          </cell>
           <cell r="AS183">
             <v>-2.6</v>
           </cell>
@@ -21431,9 +22001,6 @@
           </cell>
         </row>
         <row r="184">
-          <cell r="A184">
-            <v>36616</v>
-          </cell>
           <cell r="AS184">
             <v>-1.6</v>
           </cell>
@@ -21454,9 +22021,6 @@
           </cell>
         </row>
         <row r="185">
-          <cell r="A185">
-            <v>36646</v>
-          </cell>
           <cell r="AS185">
             <v>-1.1000000000000001</v>
           </cell>
@@ -21477,9 +22041,6 @@
           </cell>
         </row>
         <row r="186">
-          <cell r="A186">
-            <v>36677</v>
-          </cell>
           <cell r="AS186">
             <v>1.3</v>
           </cell>
@@ -21500,9 +22061,6 @@
           </cell>
         </row>
         <row r="187">
-          <cell r="A187">
-            <v>36707</v>
-          </cell>
           <cell r="AS187">
             <v>0.7</v>
           </cell>
@@ -21523,9 +22081,6 @@
           </cell>
         </row>
         <row r="188">
-          <cell r="A188">
-            <v>36738</v>
-          </cell>
           <cell r="AS188">
             <v>0.7</v>
           </cell>
@@ -21546,9 +22101,6 @@
           </cell>
         </row>
         <row r="189">
-          <cell r="A189">
-            <v>36769</v>
-          </cell>
           <cell r="AS189">
             <v>1.4</v>
           </cell>
@@ -21569,9 +22121,6 @@
           </cell>
         </row>
         <row r="190">
-          <cell r="A190">
-            <v>36799</v>
-          </cell>
           <cell r="AS190">
             <v>1.5</v>
           </cell>
@@ -21592,9 +22141,6 @@
           </cell>
         </row>
         <row r="191">
-          <cell r="A191">
-            <v>36830</v>
-          </cell>
           <cell r="AS191">
             <v>1.5</v>
           </cell>
@@ -21615,9 +22161,6 @@
           </cell>
         </row>
         <row r="192">
-          <cell r="A192">
-            <v>36860</v>
-          </cell>
           <cell r="AS192">
             <v>-1</v>
           </cell>
@@ -21638,9 +22181,6 @@
           </cell>
         </row>
         <row r="193">
-          <cell r="A193">
-            <v>36891</v>
-          </cell>
           <cell r="AS193">
             <v>-2.2000000000000002</v>
           </cell>
@@ -21661,9 +22201,6 @@
           </cell>
         </row>
         <row r="194">
-          <cell r="A194">
-            <v>36922</v>
-          </cell>
           <cell r="AS194">
             <v>-2.6</v>
           </cell>
@@ -21684,9 +22221,6 @@
           </cell>
         </row>
         <row r="195">
-          <cell r="A195">
-            <v>36950</v>
-          </cell>
           <cell r="AS195">
             <v>-4.5999999999999996</v>
           </cell>
@@ -21707,9 +22241,6 @@
           </cell>
         </row>
         <row r="196">
-          <cell r="A196">
-            <v>36981</v>
-          </cell>
           <cell r="AS196">
             <v>-6.8</v>
           </cell>
@@ -21730,9 +22261,6 @@
           </cell>
         </row>
         <row r="197">
-          <cell r="A197">
-            <v>37011</v>
-          </cell>
           <cell r="AS197">
             <v>-10.8</v>
           </cell>
@@ -21753,9 +22281,6 @@
           </cell>
         </row>
         <row r="198">
-          <cell r="A198">
-            <v>37042</v>
-          </cell>
           <cell r="AS198">
             <v>-11.8</v>
           </cell>
@@ -21776,9 +22301,6 @@
           </cell>
         </row>
         <row r="199">
-          <cell r="A199">
-            <v>37072</v>
-          </cell>
           <cell r="AS199">
             <v>-14.5</v>
           </cell>
@@ -21799,9 +22321,6 @@
           </cell>
         </row>
         <row r="200">
-          <cell r="A200">
-            <v>37103</v>
-          </cell>
           <cell r="AS200">
             <v>-13.5</v>
           </cell>
@@ -21822,9 +22341,6 @@
           </cell>
         </row>
         <row r="201">
-          <cell r="A201">
-            <v>37134</v>
-          </cell>
           <cell r="AS201">
             <v>-17.399999999999999</v>
           </cell>
@@ -21845,9 +22361,6 @@
           </cell>
         </row>
         <row r="202">
-          <cell r="A202">
-            <v>37164</v>
-          </cell>
           <cell r="AS202">
             <v>-21.1</v>
           </cell>
@@ -21868,9 +22381,6 @@
           </cell>
         </row>
         <row r="203">
-          <cell r="A203">
-            <v>37195</v>
-          </cell>
           <cell r="AS203">
             <v>-24.6</v>
           </cell>
@@ -21891,9 +22401,6 @@
           </cell>
         </row>
         <row r="204">
-          <cell r="A204">
-            <v>37225</v>
-          </cell>
           <cell r="AS204">
             <v>-25.6</v>
           </cell>
@@ -21914,9 +22421,6 @@
           </cell>
         </row>
         <row r="205">
-          <cell r="A205">
-            <v>37256</v>
-          </cell>
           <cell r="AS205">
             <v>-23.4</v>
           </cell>
@@ -21937,9 +22441,6 @@
           </cell>
         </row>
         <row r="206">
-          <cell r="A206">
-            <v>37287</v>
-          </cell>
           <cell r="AS206">
             <v>-23.8</v>
           </cell>
@@ -21960,9 +22461,6 @@
           </cell>
         </row>
         <row r="207">
-          <cell r="A207">
-            <v>37315</v>
-          </cell>
           <cell r="AS207">
             <v>-20.3</v>
           </cell>
@@ -21983,9 +22481,6 @@
           </cell>
         </row>
         <row r="208">
-          <cell r="A208">
-            <v>37346</v>
-          </cell>
           <cell r="AS208">
             <v>-17.5</v>
           </cell>
@@ -22006,9 +22501,6 @@
           </cell>
         </row>
         <row r="209">
-          <cell r="A209">
-            <v>37376</v>
-          </cell>
           <cell r="AS209">
             <v>-16.5</v>
           </cell>
@@ -22029,9 +22521,6 @@
           </cell>
         </row>
         <row r="210">
-          <cell r="A210">
-            <v>37407</v>
-          </cell>
           <cell r="AS210">
             <v>-15.4</v>
           </cell>
@@ -22052,9 +22541,6 @@
           </cell>
         </row>
         <row r="211">
-          <cell r="A211">
-            <v>37437</v>
-          </cell>
           <cell r="AS211">
             <v>-16.600000000000001</v>
           </cell>
@@ -22075,9 +22561,6 @@
           </cell>
         </row>
         <row r="212">
-          <cell r="A212">
-            <v>37468</v>
-          </cell>
           <cell r="AS212">
             <v>-17.7</v>
           </cell>
@@ -22098,9 +22581,6 @@
           </cell>
         </row>
         <row r="213">
-          <cell r="A213">
-            <v>37499</v>
-          </cell>
           <cell r="AS213">
             <v>-18.8</v>
           </cell>
@@ -22121,9 +22601,6 @@
           </cell>
         </row>
         <row r="214">
-          <cell r="A214">
-            <v>37529</v>
-          </cell>
           <cell r="AS214">
             <v>-17.2</v>
           </cell>
@@ -22144,9 +22621,6 @@
           </cell>
         </row>
         <row r="215">
-          <cell r="A215">
-            <v>37560</v>
-          </cell>
           <cell r="AS215">
             <v>-15.3</v>
           </cell>
@@ -22167,9 +22641,6 @@
           </cell>
         </row>
         <row r="216">
-          <cell r="A216">
-            <v>37590</v>
-          </cell>
           <cell r="AS216">
             <v>-15.8</v>
           </cell>
@@ -22190,9 +22661,6 @@
           </cell>
         </row>
         <row r="217">
-          <cell r="A217">
-            <v>37621</v>
-          </cell>
           <cell r="AS217">
             <v>-18.3</v>
           </cell>
@@ -22213,9 +22681,6 @@
           </cell>
         </row>
         <row r="218">
-          <cell r="A218">
-            <v>37652</v>
-          </cell>
           <cell r="AS218">
             <v>-16.899999999999999</v>
           </cell>
@@ -22236,9 +22701,6 @@
           </cell>
         </row>
         <row r="219">
-          <cell r="A219">
-            <v>37680</v>
-          </cell>
           <cell r="AS219">
             <v>-15.5</v>
           </cell>
@@ -22259,9 +22721,6 @@
           </cell>
         </row>
         <row r="220">
-          <cell r="A220">
-            <v>37711</v>
-          </cell>
           <cell r="AS220">
             <v>-18</v>
           </cell>
@@ -22282,9 +22741,6 @@
           </cell>
         </row>
         <row r="221">
-          <cell r="A221">
-            <v>37741</v>
-          </cell>
           <cell r="AS221">
             <v>-16.899999999999999</v>
           </cell>
@@ -22305,9 +22761,6 @@
           </cell>
         </row>
         <row r="222">
-          <cell r="A222">
-            <v>37772</v>
-          </cell>
           <cell r="AS222">
             <v>-18.600000000000001</v>
           </cell>
@@ -22328,9 +22781,6 @@
           </cell>
         </row>
         <row r="223">
-          <cell r="A223">
-            <v>37802</v>
-          </cell>
           <cell r="AS223">
             <v>-18.399999999999999</v>
           </cell>
@@ -22351,9 +22801,6 @@
           </cell>
         </row>
         <row r="224">
-          <cell r="A224">
-            <v>37833</v>
-          </cell>
           <cell r="AS224">
             <v>-20.3</v>
           </cell>
@@ -22374,9 +22821,6 @@
           </cell>
         </row>
         <row r="225">
-          <cell r="A225">
-            <v>37864</v>
-          </cell>
           <cell r="AS225">
             <v>-16.5</v>
           </cell>
@@ -22397,9 +22841,6 @@
           </cell>
         </row>
         <row r="226">
-          <cell r="A226">
-            <v>37894</v>
-          </cell>
           <cell r="AS226">
             <v>-13</v>
           </cell>
@@ -22420,9 +22861,6 @@
           </cell>
         </row>
         <row r="227">
-          <cell r="A227">
-            <v>37925</v>
-          </cell>
           <cell r="AS227">
             <v>-12.2</v>
           </cell>
@@ -22443,9 +22881,6 @@
           </cell>
         </row>
         <row r="228">
-          <cell r="A228">
-            <v>37955</v>
-          </cell>
           <cell r="AS228">
             <v>-9.6999999999999993</v>
           </cell>
@@ -22466,9 +22901,6 @@
           </cell>
         </row>
         <row r="229">
-          <cell r="A229">
-            <v>37986</v>
-          </cell>
           <cell r="AS229">
             <v>-11.9</v>
           </cell>
@@ -22489,9 +22921,6 @@
           </cell>
         </row>
         <row r="230">
-          <cell r="A230">
-            <v>38017</v>
-          </cell>
           <cell r="AS230">
             <v>-9.1</v>
           </cell>
@@ -22512,9 +22941,6 @@
           </cell>
         </row>
         <row r="231">
-          <cell r="A231">
-            <v>38046</v>
-          </cell>
           <cell r="AS231">
             <v>-9.1</v>
           </cell>
@@ -22535,9 +22961,6 @@
           </cell>
         </row>
         <row r="232">
-          <cell r="A232">
-            <v>38077</v>
-          </cell>
           <cell r="AS232">
             <v>-9.9</v>
           </cell>
@@ -22558,9 +22981,6 @@
           </cell>
         </row>
         <row r="233">
-          <cell r="A233">
-            <v>38107</v>
-          </cell>
           <cell r="AS233">
             <v>-6.5</v>
           </cell>
@@ -22581,9 +23001,6 @@
           </cell>
         </row>
         <row r="234">
-          <cell r="A234">
-            <v>38138</v>
-          </cell>
           <cell r="AS234">
             <v>-6.9</v>
           </cell>
@@ -22604,9 +23021,6 @@
           </cell>
         </row>
         <row r="235">
-          <cell r="A235">
-            <v>38168</v>
-          </cell>
           <cell r="AS235">
             <v>-7</v>
           </cell>
@@ -22627,9 +23041,6 @@
           </cell>
         </row>
         <row r="236">
-          <cell r="A236">
-            <v>38199</v>
-          </cell>
           <cell r="AS236">
             <v>-5.8</v>
           </cell>
@@ -22650,9 +23061,6 @@
           </cell>
         </row>
         <row r="237">
-          <cell r="A237">
-            <v>38230</v>
-          </cell>
           <cell r="AS237">
             <v>-4.7</v>
           </cell>
@@ -22673,9 +23081,6 @@
           </cell>
         </row>
         <row r="238">
-          <cell r="A238">
-            <v>38260</v>
-          </cell>
           <cell r="AS238">
             <v>-3.8</v>
           </cell>
@@ -22696,9 +23101,6 @@
           </cell>
         </row>
         <row r="239">
-          <cell r="A239">
-            <v>38291</v>
-          </cell>
           <cell r="AS239">
             <v>-3.8</v>
           </cell>
@@ -22719,9 +23121,6 @@
           </cell>
         </row>
         <row r="240">
-          <cell r="A240">
-            <v>38321</v>
-          </cell>
           <cell r="AS240">
             <v>-3.9</v>
           </cell>
@@ -22742,9 +23141,6 @@
           </cell>
         </row>
         <row r="241">
-          <cell r="A241">
-            <v>38352</v>
-          </cell>
           <cell r="AS241">
             <v>-3.8</v>
           </cell>
@@ -22765,9 +23161,6 @@
           </cell>
         </row>
         <row r="242">
-          <cell r="A242">
-            <v>38383</v>
-          </cell>
           <cell r="AS242">
             <v>-4.3</v>
           </cell>
@@ -22788,9 +23181,6 @@
           </cell>
         </row>
         <row r="243">
-          <cell r="A243">
-            <v>38411</v>
-          </cell>
           <cell r="AS243">
             <v>-7.1</v>
           </cell>
@@ -22811,9 +23201,6 @@
           </cell>
         </row>
         <row r="244">
-          <cell r="A244">
-            <v>38442</v>
-          </cell>
           <cell r="AS244">
             <v>-9.6999999999999993</v>
           </cell>
@@ -22834,9 +23221,6 @@
           </cell>
         </row>
         <row r="245">
-          <cell r="A245">
-            <v>38472</v>
-          </cell>
           <cell r="AS245">
             <v>-10.7</v>
           </cell>
@@ -22857,9 +23241,6 @@
           </cell>
         </row>
         <row r="246">
-          <cell r="A246">
-            <v>38503</v>
-          </cell>
           <cell r="AS246">
             <v>-10.6</v>
           </cell>
@@ -22880,9 +23261,6 @@
           </cell>
         </row>
         <row r="247">
-          <cell r="A247">
-            <v>38533</v>
-          </cell>
           <cell r="AS247">
             <v>-9.8000000000000007</v>
           </cell>
@@ -22903,9 +23281,6 @@
           </cell>
         </row>
         <row r="248">
-          <cell r="A248">
-            <v>38564</v>
-          </cell>
           <cell r="AS248">
             <v>-9.8000000000000007</v>
           </cell>
@@ -22926,9 +23301,6 @@
           </cell>
         </row>
         <row r="249">
-          <cell r="A249">
-            <v>38595</v>
-          </cell>
           <cell r="AS249">
             <v>-9.1</v>
           </cell>
@@ -22949,9 +23321,6 @@
           </cell>
         </row>
         <row r="250">
-          <cell r="A250">
-            <v>38625</v>
-          </cell>
           <cell r="AS250">
             <v>-7.7</v>
           </cell>
@@ -22972,9 +23341,6 @@
           </cell>
         </row>
         <row r="251">
-          <cell r="A251">
-            <v>38656</v>
-          </cell>
           <cell r="AS251">
             <v>-5.7</v>
           </cell>
@@ -22995,9 +23361,6 @@
           </cell>
         </row>
         <row r="252">
-          <cell r="A252">
-            <v>38686</v>
-          </cell>
           <cell r="AS252">
             <v>-6.9</v>
           </cell>
@@ -23018,9 +23381,6 @@
           </cell>
         </row>
         <row r="253">
-          <cell r="A253">
-            <v>38717</v>
-          </cell>
           <cell r="AS253">
             <v>-5.7</v>
           </cell>
@@ -23041,9 +23401,6 @@
           </cell>
         </row>
         <row r="254">
-          <cell r="A254">
-            <v>38748</v>
-          </cell>
           <cell r="AS254">
             <v>-3.8</v>
           </cell>
@@ -23064,9 +23421,6 @@
           </cell>
         </row>
         <row r="255">
-          <cell r="A255">
-            <v>38776</v>
-          </cell>
           <cell r="AS255">
             <v>-1.7</v>
           </cell>
@@ -23087,9 +23441,6 @@
           </cell>
         </row>
         <row r="256">
-          <cell r="A256">
-            <v>38807</v>
-          </cell>
           <cell r="AS256">
             <v>0.1</v>
           </cell>
@@ -23110,9 +23461,6 @@
           </cell>
         </row>
         <row r="257">
-          <cell r="A257">
-            <v>38837</v>
-          </cell>
           <cell r="AS257">
             <v>3</v>
           </cell>
@@ -23133,9 +23481,6 @@
           </cell>
         </row>
         <row r="258">
-          <cell r="A258">
-            <v>38868</v>
-          </cell>
           <cell r="AS258">
             <v>3.4</v>
           </cell>
@@ -23156,9 +23501,6 @@
           </cell>
         </row>
         <row r="259">
-          <cell r="A259">
-            <v>38898</v>
-          </cell>
           <cell r="AS259">
             <v>4.7</v>
           </cell>
@@ -23179,9 +23521,6 @@
           </cell>
         </row>
         <row r="260">
-          <cell r="A260">
-            <v>38929</v>
-          </cell>
           <cell r="AS260">
             <v>5.5</v>
           </cell>
@@ -23202,9 +23541,6 @@
           </cell>
         </row>
         <row r="261">
-          <cell r="A261">
-            <v>38960</v>
-          </cell>
           <cell r="AS261">
             <v>5.3</v>
           </cell>
@@ -23225,9 +23561,6 @@
           </cell>
         </row>
         <row r="262">
-          <cell r="A262">
-            <v>38990</v>
-          </cell>
           <cell r="AS262">
             <v>7.3</v>
           </cell>
@@ -23248,9 +23581,6 @@
           </cell>
         </row>
         <row r="263">
-          <cell r="A263">
-            <v>39021</v>
-          </cell>
           <cell r="AS263">
             <v>8.6999999999999993</v>
           </cell>
@@ -23271,9 +23601,6 @@
           </cell>
         </row>
         <row r="264">
-          <cell r="A264">
-            <v>39051</v>
-          </cell>
           <cell r="AS264">
             <v>11.5</v>
           </cell>
@@ -23294,9 +23621,6 @@
           </cell>
         </row>
         <row r="265">
-          <cell r="A265">
-            <v>39082</v>
-          </cell>
           <cell r="AS265">
             <v>10.3</v>
           </cell>
@@ -23317,9 +23641,6 @@
           </cell>
         </row>
         <row r="266">
-          <cell r="A266">
-            <v>39113</v>
-          </cell>
           <cell r="AS266">
             <v>9.6</v>
           </cell>
@@ -23340,9 +23661,6 @@
           </cell>
         </row>
         <row r="267">
-          <cell r="A267">
-            <v>39141</v>
-          </cell>
           <cell r="AS267">
             <v>8.5</v>
           </cell>
@@ -23363,9 +23681,6 @@
           </cell>
         </row>
         <row r="268">
-          <cell r="A268">
-            <v>39172</v>
-          </cell>
           <cell r="AS268">
             <v>9.8000000000000007</v>
           </cell>
@@ -23386,9 +23701,6 @@
           </cell>
         </row>
         <row r="269">
-          <cell r="A269">
-            <v>39202</v>
-          </cell>
           <cell r="AS269">
             <v>10</v>
           </cell>
@@ -23409,9 +23721,6 @@
           </cell>
         </row>
         <row r="270">
-          <cell r="A270">
-            <v>39233</v>
-          </cell>
           <cell r="AS270">
             <v>9.5</v>
           </cell>
@@ -23432,9 +23741,6 @@
           </cell>
         </row>
         <row r="271">
-          <cell r="A271">
-            <v>39263</v>
-          </cell>
           <cell r="AS271">
             <v>10.8</v>
           </cell>
@@ -23455,9 +23761,6 @@
           </cell>
         </row>
         <row r="272">
-          <cell r="A272">
-            <v>39294</v>
-          </cell>
           <cell r="AS272">
             <v>9.3000000000000007</v>
           </cell>
@@ -23478,9 +23781,6 @@
           </cell>
         </row>
         <row r="273">
-          <cell r="A273">
-            <v>39325</v>
-          </cell>
           <cell r="AS273">
             <v>8.1999999999999993</v>
           </cell>
@@ -23501,9 +23801,6 @@
           </cell>
         </row>
         <row r="274">
-          <cell r="A274">
-            <v>39355</v>
-          </cell>
           <cell r="AS274">
             <v>6.5</v>
           </cell>
@@ -23524,9 +23821,6 @@
           </cell>
         </row>
         <row r="275">
-          <cell r="A275">
-            <v>39386</v>
-          </cell>
           <cell r="AS275">
             <v>4.5</v>
           </cell>
@@ -23547,9 +23841,6 @@
           </cell>
         </row>
         <row r="276">
-          <cell r="A276">
-            <v>39416</v>
-          </cell>
           <cell r="AS276">
             <v>4.8</v>
           </cell>
@@ -23570,9 +23861,6 @@
           </cell>
         </row>
         <row r="277">
-          <cell r="A277">
-            <v>39447</v>
-          </cell>
           <cell r="AS277">
             <v>4.7</v>
           </cell>
@@ -23593,9 +23881,6 @@
           </cell>
         </row>
         <row r="278">
-          <cell r="A278">
-            <v>39478</v>
-          </cell>
           <cell r="AS278">
             <v>2.8</v>
           </cell>
@@ -23616,9 +23901,6 @@
           </cell>
         </row>
         <row r="279">
-          <cell r="A279">
-            <v>39507</v>
-          </cell>
           <cell r="AS279">
             <v>3.2</v>
           </cell>
@@ -23639,9 +23921,6 @@
           </cell>
         </row>
         <row r="280">
-          <cell r="A280">
-            <v>39538</v>
-          </cell>
           <cell r="AS280">
             <v>5.0999999999999996</v>
           </cell>
@@ -23662,9 +23941,6 @@
           </cell>
         </row>
         <row r="281">
-          <cell r="A281">
-            <v>39568</v>
-          </cell>
           <cell r="AS281">
             <v>2.2000000000000002</v>
           </cell>
@@ -23685,9 +23961,6 @@
           </cell>
         </row>
         <row r="282">
-          <cell r="A282">
-            <v>39599</v>
-          </cell>
           <cell r="AS282">
             <v>3.1</v>
           </cell>
@@ -23708,9 +23981,6 @@
           </cell>
         </row>
         <row r="283">
-          <cell r="A283">
-            <v>39629</v>
-          </cell>
           <cell r="AS283">
             <v>-0.8</v>
           </cell>
@@ -23731,9 +24001,6 @@
           </cell>
         </row>
         <row r="284">
-          <cell r="A284">
-            <v>39660</v>
-          </cell>
           <cell r="AS284">
             <v>-3</v>
           </cell>
@@ -23754,9 +24021,6 @@
           </cell>
         </row>
         <row r="285">
-          <cell r="A285">
-            <v>39691</v>
-          </cell>
           <cell r="AS285">
             <v>-6.3</v>
           </cell>
@@ -23777,9 +24041,6 @@
           </cell>
         </row>
         <row r="286">
-          <cell r="A286">
-            <v>39721</v>
-          </cell>
           <cell r="AS286">
             <v>-9.9</v>
           </cell>
@@ -23800,9 +24061,6 @@
           </cell>
         </row>
         <row r="287">
-          <cell r="A287">
-            <v>39752</v>
-          </cell>
           <cell r="AS287">
             <v>-18.3</v>
           </cell>
@@ -23823,9 +24081,6 @@
           </cell>
         </row>
         <row r="288">
-          <cell r="A288">
-            <v>39782</v>
-          </cell>
           <cell r="AS288">
             <v>-28.7</v>
           </cell>
@@ -23846,9 +24101,6 @@
           </cell>
         </row>
         <row r="289">
-          <cell r="A289">
-            <v>39813</v>
-          </cell>
           <cell r="AS289">
             <v>-35.799999999999997</v>
           </cell>
@@ -23869,9 +24121,6 @@
           </cell>
         </row>
         <row r="290">
-          <cell r="A290">
-            <v>39844</v>
-          </cell>
           <cell r="AS290">
             <v>-37.700000000000003</v>
           </cell>
@@ -23892,9 +24141,6 @@
           </cell>
         </row>
         <row r="291">
-          <cell r="A291">
-            <v>39872</v>
-          </cell>
           <cell r="AS291">
             <v>-41.8</v>
           </cell>
@@ -23915,9 +24161,6 @@
           </cell>
         </row>
         <row r="292">
-          <cell r="A292">
-            <v>39903</v>
-          </cell>
           <cell r="AS292">
             <v>-42.5</v>
           </cell>
@@ -23938,9 +24181,6 @@
           </cell>
         </row>
         <row r="293">
-          <cell r="A293">
-            <v>39933</v>
-          </cell>
           <cell r="AS293">
             <v>-41.1</v>
           </cell>
@@ -23961,9 +24201,6 @@
           </cell>
         </row>
         <row r="294">
-          <cell r="A294">
-            <v>39964</v>
-          </cell>
           <cell r="AS294">
             <v>-39.799999999999997</v>
           </cell>
@@ -23984,9 +24221,6 @@
           </cell>
         </row>
         <row r="295">
-          <cell r="A295">
-            <v>39994</v>
-          </cell>
           <cell r="AS295">
             <v>-36.9</v>
           </cell>
@@ -24007,9 +24241,6 @@
           </cell>
         </row>
         <row r="296">
-          <cell r="A296">
-            <v>40025</v>
-          </cell>
           <cell r="AS296">
             <v>-34.9</v>
           </cell>
@@ -24030,9 +24261,6 @@
           </cell>
         </row>
         <row r="297">
-          <cell r="A297">
-            <v>40056</v>
-          </cell>
           <cell r="AS297">
             <v>-29.5</v>
           </cell>
@@ -24053,9 +24281,6 @@
           </cell>
         </row>
         <row r="298">
-          <cell r="A298">
-            <v>40086</v>
-          </cell>
           <cell r="AS298">
             <v>-28.6</v>
           </cell>
@@ -24076,9 +24301,6 @@
           </cell>
         </row>
         <row r="299">
-          <cell r="A299">
-            <v>40117</v>
-          </cell>
           <cell r="AS299">
             <v>-23.7</v>
           </cell>
@@ -24099,9 +24321,6 @@
           </cell>
         </row>
         <row r="300">
-          <cell r="A300">
-            <v>40147</v>
-          </cell>
           <cell r="AS300">
             <v>-21.3</v>
           </cell>
@@ -24122,9 +24341,6 @@
           </cell>
         </row>
         <row r="301">
-          <cell r="A301">
-            <v>40178</v>
-          </cell>
           <cell r="AS301">
             <v>-17.7</v>
           </cell>
@@ -24145,9 +24361,6 @@
           </cell>
         </row>
         <row r="302">
-          <cell r="A302">
-            <v>40209</v>
-          </cell>
           <cell r="AS302">
             <v>-14.7</v>
           </cell>
@@ -24168,9 +24381,6 @@
           </cell>
         </row>
         <row r="303">
-          <cell r="A303">
-            <v>40237</v>
-          </cell>
           <cell r="AS303">
             <v>-11.7</v>
           </cell>
@@ -24191,9 +24401,6 @@
           </cell>
         </row>
         <row r="304">
-          <cell r="A304">
-            <v>40268</v>
-          </cell>
           <cell r="AS304">
             <v>-7.5</v>
           </cell>
@@ -24214,9 +24421,6 @@
           </cell>
         </row>
         <row r="305">
-          <cell r="A305">
-            <v>40298</v>
-          </cell>
           <cell r="AS305">
             <v>-4.5</v>
           </cell>
@@ -24237,9 +24441,6 @@
           </cell>
         </row>
         <row r="306">
-          <cell r="A306">
-            <v>40329</v>
-          </cell>
           <cell r="AS306">
             <v>-1.3</v>
           </cell>
@@ -24260,9 +24461,6 @@
           </cell>
         </row>
         <row r="307">
-          <cell r="A307">
-            <v>40359</v>
-          </cell>
           <cell r="AS307">
             <v>1.1000000000000001</v>
           </cell>
@@ -24283,9 +24481,6 @@
           </cell>
         </row>
         <row r="308">
-          <cell r="A308">
-            <v>40390</v>
-          </cell>
           <cell r="AS308">
             <v>2.8</v>
           </cell>
@@ -24306,9 +24501,6 @@
           </cell>
         </row>
         <row r="309">
-          <cell r="A309">
-            <v>40421</v>
-          </cell>
           <cell r="AS309">
             <v>3.8</v>
           </cell>
@@ -24329,9 +24521,6 @@
           </cell>
         </row>
         <row r="310">
-          <cell r="A310">
-            <v>40451</v>
-          </cell>
           <cell r="AS310">
             <v>6.6</v>
           </cell>
@@ -24352,9 +24541,6 @@
           </cell>
         </row>
         <row r="311">
-          <cell r="A311">
-            <v>40482</v>
-          </cell>
           <cell r="AS311">
             <v>8</v>
           </cell>
@@ -24375,9 +24561,6 @@
           </cell>
         </row>
         <row r="312">
-          <cell r="A312">
-            <v>40512</v>
-          </cell>
           <cell r="AS312">
             <v>10.3</v>
           </cell>
@@ -24398,9 +24581,6 @@
           </cell>
         </row>
         <row r="313">
-          <cell r="A313">
-            <v>40543</v>
-          </cell>
           <cell r="AS313">
             <v>14</v>
           </cell>
@@ -24421,9 +24601,6 @@
           </cell>
         </row>
         <row r="314">
-          <cell r="A314">
-            <v>40574</v>
-          </cell>
           <cell r="AS314">
             <v>13.1</v>
           </cell>
@@ -24444,9 +24621,6 @@
           </cell>
         </row>
         <row r="315">
-          <cell r="A315">
-            <v>40602</v>
-          </cell>
           <cell r="AS315">
             <v>16</v>
           </cell>
@@ -24467,9 +24641,6 @@
           </cell>
         </row>
         <row r="316">
-          <cell r="A316">
-            <v>40633</v>
-          </cell>
           <cell r="AS316">
             <v>14.4</v>
           </cell>
@@ -24490,9 +24661,6 @@
           </cell>
         </row>
         <row r="317">
-          <cell r="A317">
-            <v>40663</v>
-          </cell>
           <cell r="AS317">
             <v>14</v>
           </cell>
@@ -24513,9 +24681,6 @@
           </cell>
         </row>
         <row r="318">
-          <cell r="A318">
-            <v>40694</v>
-          </cell>
           <cell r="AS318">
             <v>13.3</v>
           </cell>
@@ -24536,9 +24701,6 @@
           </cell>
         </row>
         <row r="319">
-          <cell r="A319">
-            <v>40724</v>
-          </cell>
           <cell r="AS319">
             <v>11.8</v>
           </cell>
@@ -24559,9 +24721,6 @@
           </cell>
         </row>
         <row r="320">
-          <cell r="A320">
-            <v>40755</v>
-          </cell>
           <cell r="AS320">
             <v>9.6</v>
           </cell>
@@ -24582,9 +24741,6 @@
           </cell>
         </row>
         <row r="321">
-          <cell r="A321">
-            <v>40786</v>
-          </cell>
           <cell r="AS321">
             <v>4.5999999999999996</v>
           </cell>
@@ -24605,9 +24761,6 @@
           </cell>
         </row>
         <row r="322">
-          <cell r="A322">
-            <v>40816</v>
-          </cell>
           <cell r="AS322">
             <v>1.4</v>
           </cell>
@@ -24628,9 +24781,6 @@
           </cell>
         </row>
         <row r="323">
-          <cell r="A323">
-            <v>40847</v>
-          </cell>
           <cell r="AS323">
             <v>-0.7</v>
           </cell>
@@ -24651,9 +24801,6 @@
           </cell>
         </row>
         <row r="324">
-          <cell r="A324">
-            <v>40877</v>
-          </cell>
           <cell r="AS324">
             <v>-0.7</v>
           </cell>
@@ -24674,9 +24821,6 @@
           </cell>
         </row>
         <row r="325">
-          <cell r="A325">
-            <v>40908</v>
-          </cell>
           <cell r="AS325">
             <v>-0.9</v>
           </cell>
@@ -24697,9 +24841,6 @@
           </cell>
         </row>
         <row r="326">
-          <cell r="A326">
-            <v>40939</v>
-          </cell>
           <cell r="AS326">
             <v>1.6</v>
           </cell>
@@ -24720,9 +24861,6 @@
           </cell>
         </row>
         <row r="327">
-          <cell r="A327">
-            <v>40968</v>
-          </cell>
           <cell r="AS327">
             <v>2.6</v>
           </cell>
@@ -24743,9 +24881,6 @@
           </cell>
         </row>
         <row r="328">
-          <cell r="A328">
-            <v>40999</v>
-          </cell>
           <cell r="AS328">
             <v>-1.5</v>
           </cell>
@@ -24766,9 +24901,6 @@
           </cell>
         </row>
         <row r="329">
-          <cell r="A329">
-            <v>41029</v>
-          </cell>
           <cell r="AS329">
             <v>-2.5</v>
           </cell>
@@ -24789,9 +24921,6 @@
           </cell>
         </row>
         <row r="330">
-          <cell r="A330">
-            <v>41060</v>
-          </cell>
           <cell r="AS330">
             <v>-5.8</v>
           </cell>
@@ -24812,9 +24941,6 @@
           </cell>
         </row>
         <row r="331">
-          <cell r="A331">
-            <v>41090</v>
-          </cell>
           <cell r="AS331">
             <v>-8.4</v>
           </cell>
@@ -24835,9 +24961,6 @@
           </cell>
         </row>
         <row r="332">
-          <cell r="A332">
-            <v>41121</v>
-          </cell>
           <cell r="AS332">
             <v>-13</v>
           </cell>
@@ -24858,9 +24981,6 @@
           </cell>
         </row>
         <row r="333">
-          <cell r="A333">
-            <v>41152</v>
-          </cell>
           <cell r="AS333">
             <v>-13.5</v>
           </cell>
@@ -24881,9 +25001,6 @@
           </cell>
         </row>
         <row r="334">
-          <cell r="A334">
-            <v>41182</v>
-          </cell>
           <cell r="AS334">
             <v>-15.9</v>
           </cell>
@@ -24904,9 +25021,6 @@
           </cell>
         </row>
         <row r="335">
-          <cell r="A335">
-            <v>41213</v>
-          </cell>
           <cell r="AS335">
             <v>-18.100000000000001</v>
           </cell>
@@ -24927,9 +25041,6 @@
           </cell>
         </row>
         <row r="336">
-          <cell r="A336">
-            <v>41243</v>
-          </cell>
           <cell r="AS336">
             <v>-13.4</v>
           </cell>
@@ -24950,9 +25061,6 @@
           </cell>
         </row>
         <row r="337">
-          <cell r="A337">
-            <v>41274</v>
-          </cell>
           <cell r="AS337">
             <v>-12.7</v>
           </cell>
@@ -24973,9 +25081,6 @@
           </cell>
         </row>
         <row r="338">
-          <cell r="A338">
-            <v>41305</v>
-          </cell>
           <cell r="AS338">
             <v>-10.199999999999999</v>
           </cell>
@@ -24996,9 +25101,6 @@
           </cell>
         </row>
         <row r="339">
-          <cell r="A339">
-            <v>41333</v>
-          </cell>
           <cell r="AS339">
             <v>-8.4</v>
           </cell>
@@ -25019,9 +25121,6 @@
           </cell>
         </row>
         <row r="340">
-          <cell r="A340">
-            <v>41364</v>
-          </cell>
           <cell r="AS340">
             <v>-9.8000000000000007</v>
           </cell>
@@ -25042,9 +25141,6 @@
           </cell>
         </row>
         <row r="341">
-          <cell r="A341">
-            <v>41394</v>
-          </cell>
           <cell r="AS341">
             <v>-10.7</v>
           </cell>
@@ -25065,9 +25161,6 @@
           </cell>
         </row>
         <row r="342">
-          <cell r="A342">
-            <v>41425</v>
-          </cell>
           <cell r="AS342">
             <v>-11.6</v>
           </cell>
@@ -25088,9 +25181,6 @@
           </cell>
         </row>
         <row r="343">
-          <cell r="A343">
-            <v>41455</v>
-          </cell>
           <cell r="AS343">
             <v>-8.1999999999999993</v>
           </cell>
@@ -25111,9 +25201,6 @@
           </cell>
         </row>
         <row r="344">
-          <cell r="A344">
-            <v>41486</v>
-          </cell>
           <cell r="AS344">
             <v>-8.8000000000000007</v>
           </cell>
@@ -25134,9 +25221,6 @@
           </cell>
         </row>
         <row r="345">
-          <cell r="A345">
-            <v>41517</v>
-          </cell>
           <cell r="AS345">
             <v>-3.7</v>
           </cell>
@@ -25157,9 +25241,6 @@
           </cell>
         </row>
         <row r="346">
-          <cell r="A346">
-            <v>41547</v>
-          </cell>
           <cell r="AS346">
             <v>-2.6</v>
           </cell>
@@ -25180,9 +25261,6 @@
           </cell>
         </row>
         <row r="347">
-          <cell r="A347">
-            <v>41578</v>
-          </cell>
           <cell r="AS347">
             <v>0.4</v>
           </cell>
@@ -25203,9 +25281,6 @@
           </cell>
         </row>
         <row r="348">
-          <cell r="A348">
-            <v>41608</v>
-          </cell>
           <cell r="AS348">
             <v>1.1000000000000001</v>
           </cell>
@@ -25226,9 +25301,6 @@
           </cell>
         </row>
         <row r="349">
-          <cell r="A349">
-            <v>41639</v>
-          </cell>
           <cell r="AS349">
             <v>1</v>
           </cell>
@@ -25249,9 +25321,6 @@
           </cell>
         </row>
         <row r="350">
-          <cell r="A350">
-            <v>41670</v>
-          </cell>
           <cell r="AS350">
             <v>0.1</v>
           </cell>
@@ -25272,9 +25341,6 @@
           </cell>
         </row>
         <row r="351">
-          <cell r="A351">
-            <v>41698</v>
-          </cell>
           <cell r="AS351">
             <v>0.1</v>
           </cell>
@@ -25295,9 +25361,6 @@
           </cell>
         </row>
         <row r="352">
-          <cell r="A352">
-            <v>41729</v>
-          </cell>
           <cell r="AS352">
             <v>0.9</v>
           </cell>
@@ -25318,9 +25381,6 @@
           </cell>
         </row>
         <row r="353">
-          <cell r="A353">
-            <v>41759</v>
-          </cell>
           <cell r="AS353">
             <v>-0.1</v>
           </cell>
@@ -25341,9 +25401,6 @@
           </cell>
         </row>
         <row r="354">
-          <cell r="A354">
-            <v>41790</v>
-          </cell>
           <cell r="AS354">
             <v>1.2</v>
           </cell>
@@ -25364,9 +25421,6 @@
           </cell>
         </row>
         <row r="355">
-          <cell r="A355">
-            <v>41820</v>
-          </cell>
           <cell r="AS355">
             <v>-1.3</v>
           </cell>
@@ -25387,9 +25441,6 @@
           </cell>
         </row>
         <row r="356">
-          <cell r="A356">
-            <v>41851</v>
-          </cell>
           <cell r="AS356">
             <v>-0.3</v>
           </cell>
@@ -25410,9 +25461,6 @@
           </cell>
         </row>
         <row r="357">
-          <cell r="A357">
-            <v>41882</v>
-          </cell>
           <cell r="AS357">
             <v>-2.7</v>
           </cell>
@@ -25433,9 +25481,6 @@
           </cell>
         </row>
         <row r="358">
-          <cell r="A358">
-            <v>41912</v>
-          </cell>
           <cell r="AS358">
             <v>-3.1</v>
           </cell>
@@ -25456,9 +25501,6 @@
           </cell>
         </row>
         <row r="359">
-          <cell r="A359">
-            <v>41943</v>
-          </cell>
           <cell r="AS359">
             <v>-4.0999999999999996</v>
           </cell>
@@ -25479,9 +25521,6 @@
           </cell>
         </row>
         <row r="360">
-          <cell r="A360">
-            <v>41973</v>
-          </cell>
           <cell r="AS360">
             <v>-3</v>
           </cell>
@@ -25502,9 +25541,6 @@
           </cell>
         </row>
         <row r="361">
-          <cell r="A361">
-            <v>42004</v>
-          </cell>
           <cell r="AS361">
             <v>-3.4</v>
           </cell>
@@ -25525,9 +25561,6 @@
           </cell>
         </row>
         <row r="362">
-          <cell r="A362">
-            <v>42035</v>
-          </cell>
           <cell r="AS362">
             <v>-3</v>
           </cell>
@@ -25548,9 +25581,6 @@
           </cell>
         </row>
         <row r="363">
-          <cell r="A363">
-            <v>42063</v>
-          </cell>
           <cell r="AS363">
             <v>-3.4</v>
           </cell>
@@ -25651,6 +25681,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -25685,6 +25716,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -25860,11 +25892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC306"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A4" sqref="A4:A315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26130,9 +26162,8 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="2">
-        <f>'[3]ESI MONTHLY'!$A62</f>
-        <v>32904</v>
+      <c r="A4" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B4" s="1">
         <f>'[3]ESI MONTHLY'!AS62</f>
@@ -26233,9 +26264,8 @@
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="2">
-        <f>'[3]ESI MONTHLY'!$A63</f>
-        <v>32932</v>
+      <c r="A5" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="1">
         <f>'[3]ESI MONTHLY'!AS63</f>
@@ -26336,9 +26366,8 @@
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="2">
-        <f>'[3]ESI MONTHLY'!$A64</f>
-        <v>32963</v>
+      <c r="A6" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="1">
         <f>'[3]ESI MONTHLY'!AS64</f>
@@ -26439,9 +26468,8 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="2">
-        <f>'[3]ESI MONTHLY'!$A65</f>
-        <v>32993</v>
+      <c r="A7" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="1">
         <f>'[3]ESI MONTHLY'!AS65</f>
@@ -26542,9 +26570,8 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="2">
-        <f>'[3]ESI MONTHLY'!$A66</f>
-        <v>33024</v>
+      <c r="A8" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B8" s="1">
         <f>'[3]ESI MONTHLY'!AS66</f>
@@ -26645,9 +26672,8 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="2">
-        <f>'[3]ESI MONTHLY'!$A67</f>
-        <v>33054</v>
+      <c r="A9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B9" s="1">
         <f>'[3]ESI MONTHLY'!AS67</f>
@@ -26748,9 +26774,8 @@
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="2">
-        <f>'[3]ESI MONTHLY'!$A68</f>
-        <v>33085</v>
+      <c r="A10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B10" s="1">
         <f>'[3]ESI MONTHLY'!AS68</f>
@@ -26851,9 +26876,8 @@
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="2">
-        <f>'[3]ESI MONTHLY'!$A69</f>
-        <v>33116</v>
+      <c r="A11" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B11" s="1">
         <f>'[3]ESI MONTHLY'!AS69</f>
@@ -26954,9 +26978,8 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="2">
-        <f>'[3]ESI MONTHLY'!$A70</f>
-        <v>33146</v>
+      <c r="A12" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B12" s="1">
         <f>'[3]ESI MONTHLY'!AS70</f>
@@ -27057,9 +27080,8 @@
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="2">
-        <f>'[3]ESI MONTHLY'!$A71</f>
-        <v>33177</v>
+      <c r="A13" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B13" s="1">
         <f>'[3]ESI MONTHLY'!AS71</f>
@@ -27160,9 +27182,8 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="2">
-        <f>'[3]ESI MONTHLY'!$A72</f>
-        <v>33207</v>
+      <c r="A14" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B14" s="1">
         <f>'[3]ESI MONTHLY'!AS72</f>
@@ -27263,9 +27284,8 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="2">
-        <f>'[3]ESI MONTHLY'!$A73</f>
-        <v>33238</v>
+      <c r="A15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B15" s="1">
         <f>'[3]ESI MONTHLY'!AS73</f>
@@ -27366,9 +27386,8 @@
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="2">
-        <f>'[3]ESI MONTHLY'!$A74</f>
-        <v>33269</v>
+      <c r="A16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B16" s="1">
         <f>'[3]ESI MONTHLY'!AS74</f>
@@ -27469,9 +27488,8 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="2">
-        <f>'[3]ESI MONTHLY'!$A75</f>
-        <v>33297</v>
+      <c r="A17" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="1">
         <f>'[3]ESI MONTHLY'!AS75</f>
@@ -27572,9 +27590,8 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="2">
-        <f>'[3]ESI MONTHLY'!$A76</f>
-        <v>33328</v>
+      <c r="A18" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B18" s="1">
         <f>'[3]ESI MONTHLY'!AS76</f>
@@ -27675,9 +27692,8 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="2">
-        <f>'[3]ESI MONTHLY'!$A77</f>
-        <v>33358</v>
+      <c r="A19" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B19" s="1">
         <f>'[3]ESI MONTHLY'!AS77</f>
@@ -27778,9 +27794,8 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="2">
-        <f>'[3]ESI MONTHLY'!$A78</f>
-        <v>33389</v>
+      <c r="A20" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B20" s="1">
         <f>'[3]ESI MONTHLY'!AS78</f>
@@ -27881,9 +27896,8 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="2">
-        <f>'[3]ESI MONTHLY'!$A79</f>
-        <v>33419</v>
+      <c r="A21" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B21" s="1">
         <f>'[3]ESI MONTHLY'!AS79</f>
@@ -27984,9 +27998,8 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="2">
-        <f>'[3]ESI MONTHLY'!$A80</f>
-        <v>33450</v>
+      <c r="A22" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B22" s="1">
         <f>'[3]ESI MONTHLY'!AS80</f>
@@ -28087,9 +28100,8 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="2">
-        <f>'[3]ESI MONTHLY'!$A81</f>
-        <v>33481</v>
+      <c r="A23" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B23" s="1">
         <f>'[3]ESI MONTHLY'!AS81</f>
@@ -28190,9 +28202,8 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="2">
-        <f>'[3]ESI MONTHLY'!$A82</f>
-        <v>33511</v>
+      <c r="A24" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B24" s="1">
         <f>'[3]ESI MONTHLY'!AS82</f>
@@ -28293,9 +28304,8 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="2">
-        <f>'[3]ESI MONTHLY'!$A83</f>
-        <v>33542</v>
+      <c r="A25" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B25" s="1">
         <f>'[3]ESI MONTHLY'!AS83</f>
@@ -28396,9 +28406,8 @@
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="2">
-        <f>'[3]ESI MONTHLY'!$A84</f>
-        <v>33572</v>
+      <c r="A26" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B26" s="1">
         <f>'[3]ESI MONTHLY'!AS84</f>
@@ -28499,9 +28508,8 @@
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="2">
-        <f>'[3]ESI MONTHLY'!$A85</f>
-        <v>33603</v>
+      <c r="A27" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B27" s="1">
         <f>'[3]ESI MONTHLY'!AS85</f>
@@ -28602,9 +28610,8 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="2">
-        <f>'[3]ESI MONTHLY'!$A86</f>
-        <v>33634</v>
+      <c r="A28" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B28" s="1">
         <f>'[3]ESI MONTHLY'!AS86</f>
@@ -28705,9 +28712,8 @@
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="2">
-        <f>'[3]ESI MONTHLY'!$A87</f>
-        <v>33663</v>
+      <c r="A29" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B29" s="1">
         <f>'[3]ESI MONTHLY'!AS87</f>
@@ -28808,9 +28814,8 @@
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="2">
-        <f>'[3]ESI MONTHLY'!$A88</f>
-        <v>33694</v>
+      <c r="A30" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B30" s="1">
         <f>'[3]ESI MONTHLY'!AS88</f>
@@ -28911,9 +28916,8 @@
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="2">
-        <f>'[3]ESI MONTHLY'!$A89</f>
-        <v>33724</v>
+      <c r="A31" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B31" s="1">
         <f>'[3]ESI MONTHLY'!AS89</f>
@@ -29014,9 +29018,8 @@
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="2">
-        <f>'[3]ESI MONTHLY'!$A90</f>
-        <v>33755</v>
+      <c r="A32" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B32" s="1">
         <f>'[3]ESI MONTHLY'!AS90</f>
@@ -29117,9 +29120,8 @@
       </c>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="2">
-        <f>'[3]ESI MONTHLY'!$A91</f>
-        <v>33785</v>
+      <c r="A33" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B33" s="1">
         <f>'[3]ESI MONTHLY'!AS91</f>
@@ -29220,9 +29222,8 @@
       </c>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="2">
-        <f>'[3]ESI MONTHLY'!$A92</f>
-        <v>33816</v>
+      <c r="A34" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B34" s="1">
         <f>'[3]ESI MONTHLY'!AS92</f>
@@ -29323,9 +29324,8 @@
       </c>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="2">
-        <f>'[3]ESI MONTHLY'!$A93</f>
-        <v>33847</v>
+      <c r="A35" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B35" s="1">
         <f>'[3]ESI MONTHLY'!AS93</f>
@@ -29426,9 +29426,8 @@
       </c>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="2">
-        <f>'[3]ESI MONTHLY'!$A94</f>
-        <v>33877</v>
+      <c r="A36" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B36" s="1">
         <f>'[3]ESI MONTHLY'!AS94</f>
@@ -29529,9 +29528,8 @@
       </c>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="2">
-        <f>'[3]ESI MONTHLY'!$A95</f>
-        <v>33908</v>
+      <c r="A37" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B37" s="1">
         <f>'[3]ESI MONTHLY'!AS95</f>
@@ -29632,9 +29630,8 @@
       </c>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="2">
-        <f>'[3]ESI MONTHLY'!$A96</f>
-        <v>33938</v>
+      <c r="A38" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B38" s="1">
         <f>'[3]ESI MONTHLY'!AS96</f>
@@ -29735,9 +29732,8 @@
       </c>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="2">
-        <f>'[3]ESI MONTHLY'!$A97</f>
-        <v>33969</v>
+      <c r="A39" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B39" s="1">
         <f>'[3]ESI MONTHLY'!AS97</f>
@@ -29838,9 +29834,8 @@
       </c>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="2">
-        <f>'[3]ESI MONTHLY'!$A98</f>
-        <v>34000</v>
+      <c r="A40" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B40" s="1">
         <f>'[3]ESI MONTHLY'!AS98</f>
@@ -29941,9 +29936,8 @@
       </c>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="2">
-        <f>'[3]ESI MONTHLY'!$A99</f>
-        <v>34028</v>
+      <c r="A41" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B41" s="1">
         <f>'[3]ESI MONTHLY'!AS99</f>
@@ -30044,9 +30038,8 @@
       </c>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="2">
-        <f>'[3]ESI MONTHLY'!$A100</f>
-        <v>34059</v>
+      <c r="A42" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B42" s="1">
         <f>'[3]ESI MONTHLY'!AS100</f>
@@ -30147,9 +30140,8 @@
       </c>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="2">
-        <f>'[3]ESI MONTHLY'!$A101</f>
-        <v>34089</v>
+      <c r="A43" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B43" s="1">
         <f>'[3]ESI MONTHLY'!AS101</f>
@@ -30250,9 +30242,8 @@
       </c>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="2">
-        <f>'[3]ESI MONTHLY'!$A102</f>
-        <v>34120</v>
+      <c r="A44" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B44" s="1">
         <f>'[3]ESI MONTHLY'!AS102</f>
@@ -30353,9 +30344,8 @@
       </c>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="2">
-        <f>'[3]ESI MONTHLY'!$A103</f>
-        <v>34150</v>
+      <c r="A45" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B45" s="1">
         <f>'[3]ESI MONTHLY'!AS103</f>
@@ -30456,9 +30446,8 @@
       </c>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="2">
-        <f>'[3]ESI MONTHLY'!$A104</f>
-        <v>34181</v>
+      <c r="A46" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B46" s="1">
         <f>'[3]ESI MONTHLY'!AS104</f>
@@ -30559,9 +30548,8 @@
       </c>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="2">
-        <f>'[3]ESI MONTHLY'!$A105</f>
-        <v>34212</v>
+      <c r="A47" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B47" s="1">
         <f>'[3]ESI MONTHLY'!AS105</f>
@@ -30662,9 +30650,8 @@
       </c>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="2">
-        <f>'[3]ESI MONTHLY'!$A106</f>
-        <v>34242</v>
+      <c r="A48" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B48" s="1">
         <f>'[3]ESI MONTHLY'!AS106</f>
@@ -30765,9 +30752,8 @@
       </c>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="2">
-        <f>'[3]ESI MONTHLY'!$A107</f>
-        <v>34273</v>
+      <c r="A49" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B49" s="1">
         <f>'[3]ESI MONTHLY'!AS107</f>
@@ -30868,9 +30854,8 @@
       </c>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="2">
-        <f>'[3]ESI MONTHLY'!$A108</f>
-        <v>34303</v>
+      <c r="A50" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B50" s="1">
         <f>'[3]ESI MONTHLY'!AS108</f>
@@ -30971,9 +30956,8 @@
       </c>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="2">
-        <f>'[3]ESI MONTHLY'!$A109</f>
-        <v>34334</v>
+      <c r="A51" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B51" s="1">
         <f>'[3]ESI MONTHLY'!AS109</f>
@@ -31074,9 +31058,8 @@
       </c>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="2">
-        <f>'[3]ESI MONTHLY'!$A110</f>
-        <v>34365</v>
+      <c r="A52" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B52" s="1">
         <f>'[3]ESI MONTHLY'!AS110</f>
@@ -31177,9 +31160,8 @@
       </c>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="2">
-        <f>'[3]ESI MONTHLY'!$A111</f>
-        <v>34393</v>
+      <c r="A53" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B53" s="1">
         <f>'[3]ESI MONTHLY'!AS111</f>
@@ -31280,9 +31262,8 @@
       </c>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="2">
-        <f>'[3]ESI MONTHLY'!$A112</f>
-        <v>34424</v>
+      <c r="A54" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B54" s="1">
         <f>'[3]ESI MONTHLY'!AS112</f>
@@ -31383,9 +31364,8 @@
       </c>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="2">
-        <f>'[3]ESI MONTHLY'!$A113</f>
-        <v>34454</v>
+      <c r="A55" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B55" s="1">
         <f>'[3]ESI MONTHLY'!AS113</f>
@@ -31486,9 +31466,8 @@
       </c>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="2">
-        <f>'[3]ESI MONTHLY'!$A114</f>
-        <v>34485</v>
+      <c r="A56" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B56" s="1">
         <f>'[3]ESI MONTHLY'!AS114</f>
@@ -31589,9 +31568,8 @@
       </c>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="2">
-        <f>'[3]ESI MONTHLY'!$A115</f>
-        <v>34515</v>
+      <c r="A57" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B57" s="1">
         <f>'[3]ESI MONTHLY'!AS115</f>
@@ -31692,9 +31670,8 @@
       </c>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="2">
-        <f>'[3]ESI MONTHLY'!$A116</f>
-        <v>34546</v>
+      <c r="A58" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B58" s="1">
         <f>'[3]ESI MONTHLY'!AS116</f>
@@ -31795,9 +31772,8 @@
       </c>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="2">
-        <f>'[3]ESI MONTHLY'!$A117</f>
-        <v>34577</v>
+      <c r="A59" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B59" s="1">
         <f>'[3]ESI MONTHLY'!AS117</f>
@@ -31898,9 +31874,8 @@
       </c>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="2">
-        <f>'[3]ESI MONTHLY'!$A118</f>
-        <v>34607</v>
+      <c r="A60" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B60" s="1">
         <f>'[3]ESI MONTHLY'!AS118</f>
@@ -32001,9 +31976,8 @@
       </c>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="2">
-        <f>'[3]ESI MONTHLY'!$A119</f>
-        <v>34638</v>
+      <c r="A61" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B61" s="1">
         <f>'[3]ESI MONTHLY'!AS119</f>
@@ -32104,9 +32078,8 @@
       </c>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="2">
-        <f>'[3]ESI MONTHLY'!$A120</f>
-        <v>34668</v>
+      <c r="A62" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B62" s="1">
         <f>'[3]ESI MONTHLY'!AS120</f>
@@ -32207,9 +32180,8 @@
       </c>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="2">
-        <f>'[3]ESI MONTHLY'!$A121</f>
-        <v>34699</v>
+      <c r="A63" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B63" s="1">
         <f>'[3]ESI MONTHLY'!AS121</f>
@@ -32310,9 +32282,8 @@
       </c>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="2">
-        <f>'[3]ESI MONTHLY'!$A122</f>
-        <v>34730</v>
+      <c r="A64" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B64" s="1">
         <f>'[3]ESI MONTHLY'!AS122</f>
@@ -32413,9 +32384,8 @@
       </c>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="2">
-        <f>'[3]ESI MONTHLY'!$A123</f>
-        <v>34758</v>
+      <c r="A65" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B65" s="1">
         <f>'[3]ESI MONTHLY'!AS123</f>
@@ -32516,9 +32486,8 @@
       </c>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="2">
-        <f>'[3]ESI MONTHLY'!$A124</f>
-        <v>34789</v>
+      <c r="A66" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B66" s="1">
         <f>'[3]ESI MONTHLY'!AS124</f>
@@ -32619,9 +32588,8 @@
       </c>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="2">
-        <f>'[3]ESI MONTHLY'!$A125</f>
-        <v>34819</v>
+      <c r="A67" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B67" s="1">
         <f>'[3]ESI MONTHLY'!AS125</f>
@@ -32725,9 +32693,8 @@
       </c>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="2">
-        <f>'[3]ESI MONTHLY'!$A126</f>
-        <v>34850</v>
+      <c r="A68" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B68" s="1">
         <f>'[3]ESI MONTHLY'!AS126</f>
@@ -32831,9 +32798,8 @@
       </c>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="2">
-        <f>'[3]ESI MONTHLY'!$A127</f>
-        <v>34880</v>
+      <c r="A69" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B69" s="1">
         <f>'[3]ESI MONTHLY'!AS127</f>
@@ -32937,9 +32903,8 @@
       </c>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="2">
-        <f>'[3]ESI MONTHLY'!$A128</f>
-        <v>34911</v>
+      <c r="A70" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B70" s="1">
         <f>'[3]ESI MONTHLY'!AS128</f>
@@ -33043,9 +33008,8 @@
       </c>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="2">
-        <f>'[3]ESI MONTHLY'!$A129</f>
-        <v>34942</v>
+      <c r="A71" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B71" s="1">
         <f>'[3]ESI MONTHLY'!AS129</f>
@@ -33149,9 +33113,8 @@
       </c>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="2">
-        <f>'[3]ESI MONTHLY'!$A130</f>
-        <v>34972</v>
+      <c r="A72" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B72" s="1">
         <f>'[3]ESI MONTHLY'!AS130</f>
@@ -33255,9 +33218,8 @@
       </c>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="2">
-        <f>'[3]ESI MONTHLY'!$A131</f>
-        <v>35003</v>
+      <c r="A73" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B73" s="1">
         <f>'[3]ESI MONTHLY'!AS131</f>
@@ -33361,9 +33323,8 @@
       </c>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="2">
-        <f>'[3]ESI MONTHLY'!$A132</f>
-        <v>35033</v>
+      <c r="A74" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B74" s="1">
         <f>'[3]ESI MONTHLY'!AS132</f>
@@ -33467,9 +33428,8 @@
       </c>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="2">
-        <f>'[3]ESI MONTHLY'!$A133</f>
-        <v>35064</v>
+      <c r="A75" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B75" s="1">
         <f>'[3]ESI MONTHLY'!AS133</f>
@@ -33573,9 +33533,8 @@
       </c>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="2">
-        <f>'[3]ESI MONTHLY'!$A134</f>
-        <v>35095</v>
+      <c r="A76" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B76" s="1">
         <f>'[3]ESI MONTHLY'!AS134</f>
@@ -33679,9 +33638,8 @@
       </c>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="2">
-        <f>'[3]ESI MONTHLY'!$A135</f>
-        <v>35124</v>
+      <c r="A77" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B77" s="1">
         <f>'[3]ESI MONTHLY'!AS135</f>
@@ -33785,9 +33743,8 @@
       </c>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="2">
-        <f>'[3]ESI MONTHLY'!$A136</f>
-        <v>35155</v>
+      <c r="A78" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="B78" s="1">
         <f>'[3]ESI MONTHLY'!AS136</f>
@@ -33891,9 +33848,8 @@
       </c>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="2">
-        <f>'[3]ESI MONTHLY'!$A137</f>
-        <v>35185</v>
+      <c r="A79" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B79" s="1">
         <f>'[3]ESI MONTHLY'!AS137</f>
@@ -33997,9 +33953,8 @@
       </c>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="2">
-        <f>'[3]ESI MONTHLY'!$A138</f>
-        <v>35216</v>
+      <c r="A80" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B80" s="1">
         <f>'[3]ESI MONTHLY'!AS138</f>
@@ -34103,9 +34058,8 @@
       </c>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="2">
-        <f>'[3]ESI MONTHLY'!$A139</f>
-        <v>35246</v>
+      <c r="A81" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B81" s="1">
         <f>'[3]ESI MONTHLY'!AS139</f>
@@ -34209,9 +34163,8 @@
       </c>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="2">
-        <f>'[3]ESI MONTHLY'!$A140</f>
-        <v>35277</v>
+      <c r="A82" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B82" s="1">
         <f>'[3]ESI MONTHLY'!AS140</f>
@@ -34315,9 +34268,8 @@
       </c>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="2">
-        <f>'[3]ESI MONTHLY'!$A141</f>
-        <v>35308</v>
+      <c r="A83" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B83" s="1">
         <f>'[3]ESI MONTHLY'!AS141</f>
@@ -34421,9 +34373,8 @@
       </c>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="2">
-        <f>'[3]ESI MONTHLY'!$A142</f>
-        <v>35338</v>
+      <c r="A84" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B84" s="1">
         <f>'[3]ESI MONTHLY'!AS142</f>
@@ -34527,9 +34478,8 @@
       </c>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="2">
-        <f>'[3]ESI MONTHLY'!$A143</f>
-        <v>35369</v>
+      <c r="A85" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="B85" s="1">
         <f>'[3]ESI MONTHLY'!AS143</f>
@@ -34633,9 +34583,8 @@
       </c>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="2">
-        <f>'[3]ESI MONTHLY'!$A144</f>
-        <v>35399</v>
+      <c r="A86" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B86" s="1">
         <f>'[3]ESI MONTHLY'!AS144</f>
@@ -34739,9 +34688,8 @@
       </c>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="2">
-        <f>'[3]ESI MONTHLY'!$A145</f>
-        <v>35430</v>
+      <c r="A87" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B87" s="1">
         <f>'[3]ESI MONTHLY'!AS145</f>
@@ -34845,9 +34793,8 @@
       </c>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="2">
-        <f>'[3]ESI MONTHLY'!$A146</f>
-        <v>35461</v>
+      <c r="A88" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B88" s="1">
         <f>'[3]ESI MONTHLY'!AS146</f>
@@ -34951,9 +34898,8 @@
       </c>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="2">
-        <f>'[3]ESI MONTHLY'!$A147</f>
-        <v>35489</v>
+      <c r="A89" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B89" s="1">
         <f>'[3]ESI MONTHLY'!AS147</f>
@@ -35057,9 +35003,8 @@
       </c>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="2">
-        <f>'[3]ESI MONTHLY'!$A148</f>
-        <v>35520</v>
+      <c r="A90" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B90" s="1">
         <f>'[3]ESI MONTHLY'!AS148</f>
@@ -35163,9 +35108,8 @@
       </c>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="2">
-        <f>'[3]ESI MONTHLY'!$A149</f>
-        <v>35550</v>
+      <c r="A91" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B91" s="1">
         <f>'[3]ESI MONTHLY'!AS149</f>
@@ -35269,9 +35213,8 @@
       </c>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="2">
-        <f>'[3]ESI MONTHLY'!$A150</f>
-        <v>35581</v>
+      <c r="A92" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B92" s="1">
         <f>'[3]ESI MONTHLY'!AS150</f>
@@ -35375,9 +35318,8 @@
       </c>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="2">
-        <f>'[3]ESI MONTHLY'!$A151</f>
-        <v>35611</v>
+      <c r="A93" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B93" s="1">
         <f>'[3]ESI MONTHLY'!AS151</f>
@@ -35481,9 +35423,8 @@
       </c>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="2">
-        <f>'[3]ESI MONTHLY'!$A152</f>
-        <v>35642</v>
+      <c r="A94" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B94" s="1">
         <f>'[3]ESI MONTHLY'!AS152</f>
@@ -35587,9 +35528,8 @@
       </c>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="2">
-        <f>'[3]ESI MONTHLY'!$A153</f>
-        <v>35673</v>
+      <c r="A95" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B95" s="1">
         <f>'[3]ESI MONTHLY'!AS153</f>
@@ -35693,9 +35633,8 @@
       </c>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="2">
-        <f>'[3]ESI MONTHLY'!$A154</f>
-        <v>35703</v>
+      <c r="A96" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B96" s="1">
         <f>'[3]ESI MONTHLY'!AS154</f>
@@ -35799,9 +35738,8 @@
       </c>
     </row>
     <row r="97" spans="1:26">
-      <c r="A97" s="2">
-        <f>'[3]ESI MONTHLY'!$A155</f>
-        <v>35734</v>
+      <c r="A97" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B97" s="1">
         <f>'[3]ESI MONTHLY'!AS155</f>
@@ -35905,9 +35843,8 @@
       </c>
     </row>
     <row r="98" spans="1:26">
-      <c r="A98" s="2">
-        <f>'[3]ESI MONTHLY'!$A156</f>
-        <v>35764</v>
+      <c r="A98" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B98" s="1">
         <f>'[3]ESI MONTHLY'!AS156</f>
@@ -36011,9 +35948,8 @@
       </c>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="2">
-        <f>'[3]ESI MONTHLY'!$A157</f>
-        <v>35795</v>
+      <c r="A99" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="B99" s="1">
         <f>'[3]ESI MONTHLY'!AS157</f>
@@ -36117,9 +36053,8 @@
       </c>
     </row>
     <row r="100" spans="1:26">
-      <c r="A100" s="2">
-        <f>'[3]ESI MONTHLY'!$A158</f>
-        <v>35826</v>
+      <c r="A100" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B100" s="1">
         <f>'[3]ESI MONTHLY'!AS158</f>
@@ -36223,9 +36158,8 @@
       </c>
     </row>
     <row r="101" spans="1:26">
-      <c r="A101" s="2">
-        <f>'[3]ESI MONTHLY'!$A159</f>
-        <v>35854</v>
+      <c r="A101" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="B101" s="1">
         <f>'[3]ESI MONTHLY'!AS159</f>
@@ -36329,9 +36263,8 @@
       </c>
     </row>
     <row r="102" spans="1:26">
-      <c r="A102" s="2">
-        <f>'[3]ESI MONTHLY'!$A160</f>
-        <v>35885</v>
+      <c r="A102" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B102" s="1">
         <f>'[3]ESI MONTHLY'!AS160</f>
@@ -36435,9 +36368,8 @@
       </c>
     </row>
     <row r="103" spans="1:26">
-      <c r="A103" s="2">
-        <f>'[3]ESI MONTHLY'!$A161</f>
-        <v>35915</v>
+      <c r="A103" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B103" s="1">
         <f>'[3]ESI MONTHLY'!AS161</f>
@@ -36541,9 +36473,8 @@
       </c>
     </row>
     <row r="104" spans="1:26">
-      <c r="A104" s="2">
-        <f>'[3]ESI MONTHLY'!$A162</f>
-        <v>35946</v>
+      <c r="A104" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B104" s="1">
         <f>'[3]ESI MONTHLY'!AS162</f>
@@ -36647,9 +36578,8 @@
       </c>
     </row>
     <row r="105" spans="1:26">
-      <c r="A105" s="2">
-        <f>'[3]ESI MONTHLY'!$A163</f>
-        <v>35976</v>
+      <c r="A105" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="B105" s="1">
         <f>'[3]ESI MONTHLY'!AS163</f>
@@ -36753,9 +36683,8 @@
       </c>
     </row>
     <row r="106" spans="1:26">
-      <c r="A106" s="2">
-        <f>'[3]ESI MONTHLY'!$A164</f>
-        <v>36007</v>
+      <c r="A106" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B106" s="1">
         <f>'[3]ESI MONTHLY'!AS164</f>
@@ -36859,9 +36788,8 @@
       </c>
     </row>
     <row r="107" spans="1:26">
-      <c r="A107" s="2">
-        <f>'[3]ESI MONTHLY'!$A165</f>
-        <v>36038</v>
+      <c r="A107" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B107" s="1">
         <f>'[3]ESI MONTHLY'!AS165</f>
@@ -36965,9 +36893,8 @@
       </c>
     </row>
     <row r="108" spans="1:26">
-      <c r="A108" s="2">
-        <f>'[3]ESI MONTHLY'!$A166</f>
-        <v>36068</v>
+      <c r="A108" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="B108" s="1">
         <f>'[3]ESI MONTHLY'!AS166</f>
@@ -37071,9 +36998,8 @@
       </c>
     </row>
     <row r="109" spans="1:26">
-      <c r="A109" s="2">
-        <f>'[3]ESI MONTHLY'!$A167</f>
-        <v>36099</v>
+      <c r="A109" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B109" s="1">
         <f>'[3]ESI MONTHLY'!AS167</f>
@@ -37177,9 +37103,8 @@
       </c>
     </row>
     <row r="110" spans="1:26">
-      <c r="A110" s="2">
-        <f>'[3]ESI MONTHLY'!$A168</f>
-        <v>36129</v>
+      <c r="A110" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B110" s="1">
         <f>'[3]ESI MONTHLY'!AS168</f>
@@ -37283,9 +37208,8 @@
       </c>
     </row>
     <row r="111" spans="1:26">
-      <c r="A111" s="2">
-        <f>'[3]ESI MONTHLY'!$A169</f>
-        <v>36160</v>
+      <c r="A111" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B111" s="1">
         <f>'[3]ESI MONTHLY'!AS169</f>
@@ -37389,9 +37313,8 @@
       </c>
     </row>
     <row r="112" spans="1:26">
-      <c r="A112" s="2">
-        <f>'[3]ESI MONTHLY'!$A170</f>
-        <v>36191</v>
+      <c r="A112" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="B112" s="1">
         <f>'[3]ESI MONTHLY'!AS170</f>
@@ -37495,9 +37418,8 @@
       </c>
     </row>
     <row r="113" spans="1:26">
-      <c r="A113" s="2">
-        <f>'[3]ESI MONTHLY'!$A171</f>
-        <v>36219</v>
+      <c r="A113" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B113" s="1">
         <f>'[3]ESI MONTHLY'!AS171</f>
@@ -37601,9 +37523,8 @@
       </c>
     </row>
     <row r="114" spans="1:26">
-      <c r="A114" s="2">
-        <f>'[3]ESI MONTHLY'!$A172</f>
-        <v>36250</v>
+      <c r="A114" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B114" s="1">
         <f>'[3]ESI MONTHLY'!AS172</f>
@@ -37707,9 +37628,8 @@
       </c>
     </row>
     <row r="115" spans="1:26">
-      <c r="A115" s="2">
-        <f>'[3]ESI MONTHLY'!$A173</f>
-        <v>36280</v>
+      <c r="A115" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B115" s="1">
         <f>'[3]ESI MONTHLY'!AS173</f>
@@ -37813,9 +37733,8 @@
       </c>
     </row>
     <row r="116" spans="1:26">
-      <c r="A116" s="2">
-        <f>'[3]ESI MONTHLY'!$A174</f>
-        <v>36311</v>
+      <c r="A116" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="B116" s="1">
         <f>'[3]ESI MONTHLY'!AS174</f>
@@ -37919,9 +37838,8 @@
       </c>
     </row>
     <row r="117" spans="1:26">
-      <c r="A117" s="2">
-        <f>'[3]ESI MONTHLY'!$A175</f>
-        <v>36341</v>
+      <c r="A117" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="B117" s="1">
         <f>'[3]ESI MONTHLY'!AS175</f>
@@ -38025,9 +37943,8 @@
       </c>
     </row>
     <row r="118" spans="1:26">
-      <c r="A118" s="2">
-        <f>'[3]ESI MONTHLY'!$A176</f>
-        <v>36372</v>
+      <c r="A118" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="B118" s="1">
         <f>'[3]ESI MONTHLY'!AS176</f>
@@ -38131,9 +38048,8 @@
       </c>
     </row>
     <row r="119" spans="1:26">
-      <c r="A119" s="2">
-        <f>'[3]ESI MONTHLY'!$A177</f>
-        <v>36403</v>
+      <c r="A119" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="B119" s="1">
         <f>'[3]ESI MONTHLY'!AS177</f>
@@ -38237,9 +38153,8 @@
       </c>
     </row>
     <row r="120" spans="1:26">
-      <c r="A120" s="2">
-        <f>'[3]ESI MONTHLY'!$A178</f>
-        <v>36433</v>
+      <c r="A120" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B120" s="1">
         <f>'[3]ESI MONTHLY'!AS178</f>
@@ -38343,9 +38258,8 @@
       </c>
     </row>
     <row r="121" spans="1:26">
-      <c r="A121" s="2">
-        <f>'[3]ESI MONTHLY'!$A179</f>
-        <v>36464</v>
+      <c r="A121" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B121" s="1">
         <f>'[3]ESI MONTHLY'!AS179</f>
@@ -38449,9 +38363,8 @@
       </c>
     </row>
     <row r="122" spans="1:26">
-      <c r="A122" s="2">
-        <f>'[3]ESI MONTHLY'!$A180</f>
-        <v>36494</v>
+      <c r="A122" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B122" s="1">
         <f>'[3]ESI MONTHLY'!AS180</f>
@@ -38555,9 +38468,8 @@
       </c>
     </row>
     <row r="123" spans="1:26">
-      <c r="A123" s="2">
-        <f>'[3]ESI MONTHLY'!$A181</f>
-        <v>36525</v>
+      <c r="A123" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B123" s="1">
         <f>'[3]ESI MONTHLY'!AS181</f>
@@ -38661,9 +38573,8 @@
       </c>
     </row>
     <row r="124" spans="1:26">
-      <c r="A124" s="2">
-        <f>'[3]ESI MONTHLY'!$A182</f>
-        <v>36556</v>
+      <c r="A124" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="B124" s="1">
         <f>'[3]ESI MONTHLY'!AS182</f>
@@ -38767,9 +38678,8 @@
       </c>
     </row>
     <row r="125" spans="1:26">
-      <c r="A125" s="2">
-        <f>'[3]ESI MONTHLY'!$A183</f>
-        <v>36585</v>
+      <c r="A125" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B125" s="1">
         <f>'[3]ESI MONTHLY'!AS183</f>
@@ -38873,9 +38783,8 @@
       </c>
     </row>
     <row r="126" spans="1:26">
-      <c r="A126" s="2">
-        <f>'[3]ESI MONTHLY'!$A184</f>
-        <v>36616</v>
+      <c r="A126" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B126" s="1">
         <f>'[3]ESI MONTHLY'!AS184</f>
@@ -38979,9 +38888,8 @@
       </c>
     </row>
     <row r="127" spans="1:26">
-      <c r="A127" s="2">
-        <f>'[3]ESI MONTHLY'!$A185</f>
-        <v>36646</v>
+      <c r="A127" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="B127" s="1">
         <f>'[3]ESI MONTHLY'!AS185</f>
@@ -39085,9 +38993,8 @@
       </c>
     </row>
     <row r="128" spans="1:26">
-      <c r="A128" s="2">
-        <f>'[3]ESI MONTHLY'!$A186</f>
-        <v>36677</v>
+      <c r="A128" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B128" s="1">
         <f>'[3]ESI MONTHLY'!AS186</f>
@@ -39191,9 +39098,8 @@
       </c>
     </row>
     <row r="129" spans="1:26">
-      <c r="A129" s="2">
-        <f>'[3]ESI MONTHLY'!$A187</f>
-        <v>36707</v>
+      <c r="A129" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="B129" s="1">
         <f>'[3]ESI MONTHLY'!AS187</f>
@@ -39297,9 +39203,8 @@
       </c>
     </row>
     <row r="130" spans="1:26">
-      <c r="A130" s="2">
-        <f>'[3]ESI MONTHLY'!$A188</f>
-        <v>36738</v>
+      <c r="A130" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B130" s="1">
         <f>'[3]ESI MONTHLY'!AS188</f>
@@ -39403,9 +39308,8 @@
       </c>
     </row>
     <row r="131" spans="1:26">
-      <c r="A131" s="2">
-        <f>'[3]ESI MONTHLY'!$A189</f>
-        <v>36769</v>
+      <c r="A131" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B131" s="1">
         <f>'[3]ESI MONTHLY'!AS189</f>
@@ -39509,9 +39413,8 @@
       </c>
     </row>
     <row r="132" spans="1:26">
-      <c r="A132" s="2">
-        <f>'[3]ESI MONTHLY'!$A190</f>
-        <v>36799</v>
+      <c r="A132" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B132" s="1">
         <f>'[3]ESI MONTHLY'!AS190</f>
@@ -39615,9 +39518,8 @@
       </c>
     </row>
     <row r="133" spans="1:26">
-      <c r="A133" s="2">
-        <f>'[3]ESI MONTHLY'!$A191</f>
-        <v>36830</v>
+      <c r="A133" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="B133" s="1">
         <f>'[3]ESI MONTHLY'!AS191</f>
@@ -39721,9 +39623,8 @@
       </c>
     </row>
     <row r="134" spans="1:26">
-      <c r="A134" s="2">
-        <f>'[3]ESI MONTHLY'!$A192</f>
-        <v>36860</v>
+      <c r="A134" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B134" s="1">
         <f>'[3]ESI MONTHLY'!AS192</f>
@@ -39827,9 +39728,8 @@
       </c>
     </row>
     <row r="135" spans="1:26">
-      <c r="A135" s="2">
-        <f>'[3]ESI MONTHLY'!$A193</f>
-        <v>36891</v>
+      <c r="A135" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B135" s="1">
         <f>'[3]ESI MONTHLY'!AS193</f>
@@ -39933,9 +39833,8 @@
       </c>
     </row>
     <row r="136" spans="1:26">
-      <c r="A136" s="2">
-        <f>'[3]ESI MONTHLY'!$A194</f>
-        <v>36922</v>
+      <c r="A136" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B136" s="1">
         <f>'[3]ESI MONTHLY'!AS194</f>
@@ -40039,9 +39938,8 @@
       </c>
     </row>
     <row r="137" spans="1:26">
-      <c r="A137" s="2">
-        <f>'[3]ESI MONTHLY'!$A195</f>
-        <v>36950</v>
+      <c r="A137" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="B137" s="1">
         <f>'[3]ESI MONTHLY'!AS195</f>
@@ -40145,9 +40043,8 @@
       </c>
     </row>
     <row r="138" spans="1:26">
-      <c r="A138" s="2">
-        <f>'[3]ESI MONTHLY'!$A196</f>
-        <v>36981</v>
+      <c r="A138" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B138" s="1">
         <f>'[3]ESI MONTHLY'!AS196</f>
@@ -40251,9 +40148,8 @@
       </c>
     </row>
     <row r="139" spans="1:26">
-      <c r="A139" s="2">
-        <f>'[3]ESI MONTHLY'!$A197</f>
-        <v>37011</v>
+      <c r="A139" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="B139" s="1">
         <f>'[3]ESI MONTHLY'!AS197</f>
@@ -40357,9 +40253,8 @@
       </c>
     </row>
     <row r="140" spans="1:26">
-      <c r="A140" s="2">
-        <f>'[3]ESI MONTHLY'!$A198</f>
-        <v>37042</v>
+      <c r="A140" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B140" s="1">
         <f>'[3]ESI MONTHLY'!AS198</f>
@@ -40463,9 +40358,8 @@
       </c>
     </row>
     <row r="141" spans="1:26">
-      <c r="A141" s="2">
-        <f>'[3]ESI MONTHLY'!$A199</f>
-        <v>37072</v>
+      <c r="A141" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="B141" s="1">
         <f>'[3]ESI MONTHLY'!AS199</f>
@@ -40569,9 +40463,8 @@
       </c>
     </row>
     <row r="142" spans="1:26">
-      <c r="A142" s="2">
-        <f>'[3]ESI MONTHLY'!$A200</f>
-        <v>37103</v>
+      <c r="A142" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B142" s="1">
         <f>'[3]ESI MONTHLY'!AS200</f>
@@ -40675,9 +40568,8 @@
       </c>
     </row>
     <row r="143" spans="1:26">
-      <c r="A143" s="2">
-        <f>'[3]ESI MONTHLY'!$A201</f>
-        <v>37134</v>
+      <c r="A143" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B143" s="1">
         <f>'[3]ESI MONTHLY'!AS201</f>
@@ -40781,9 +40673,8 @@
       </c>
     </row>
     <row r="144" spans="1:26">
-      <c r="A144" s="2">
-        <f>'[3]ESI MONTHLY'!$A202</f>
-        <v>37164</v>
+      <c r="A144" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="B144" s="1">
         <f>'[3]ESI MONTHLY'!AS202</f>
@@ -40887,9 +40778,8 @@
       </c>
     </row>
     <row r="145" spans="1:26">
-      <c r="A145" s="2">
-        <f>'[3]ESI MONTHLY'!$A203</f>
-        <v>37195</v>
+      <c r="A145" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B145" s="1">
         <f>'[3]ESI MONTHLY'!AS203</f>
@@ -40993,9 +40883,8 @@
       </c>
     </row>
     <row r="146" spans="1:26">
-      <c r="A146" s="2">
-        <f>'[3]ESI MONTHLY'!$A204</f>
-        <v>37225</v>
+      <c r="A146" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B146" s="1">
         <f>'[3]ESI MONTHLY'!AS204</f>
@@ -41099,9 +40988,8 @@
       </c>
     </row>
     <row r="147" spans="1:26">
-      <c r="A147" s="2">
-        <f>'[3]ESI MONTHLY'!$A205</f>
-        <v>37256</v>
+      <c r="A147" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B147" s="1">
         <f>'[3]ESI MONTHLY'!AS205</f>
@@ -41205,9 +41093,8 @@
       </c>
     </row>
     <row r="148" spans="1:26">
-      <c r="A148" s="2">
-        <f>'[3]ESI MONTHLY'!$A206</f>
-        <v>37287</v>
+      <c r="A148" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="B148" s="1">
         <f>'[3]ESI MONTHLY'!AS206</f>
@@ -41311,9 +41198,8 @@
       </c>
     </row>
     <row r="149" spans="1:26">
-      <c r="A149" s="2">
-        <f>'[3]ESI MONTHLY'!$A207</f>
-        <v>37315</v>
+      <c r="A149" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B149" s="1">
         <f>'[3]ESI MONTHLY'!AS207</f>
@@ -41417,9 +41303,8 @@
       </c>
     </row>
     <row r="150" spans="1:26">
-      <c r="A150" s="2">
-        <f>'[3]ESI MONTHLY'!$A208</f>
-        <v>37346</v>
+      <c r="A150" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B150" s="1">
         <f>'[3]ESI MONTHLY'!AS208</f>
@@ -41523,9 +41408,8 @@
       </c>
     </row>
     <row r="151" spans="1:26">
-      <c r="A151" s="2">
-        <f>'[3]ESI MONTHLY'!$A209</f>
-        <v>37376</v>
+      <c r="A151" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B151" s="1">
         <f>'[3]ESI MONTHLY'!AS209</f>
@@ -41629,9 +41513,8 @@
       </c>
     </row>
     <row r="152" spans="1:26">
-      <c r="A152" s="2">
-        <f>'[3]ESI MONTHLY'!$A210</f>
-        <v>37407</v>
+      <c r="A152" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B152" s="1">
         <f>'[3]ESI MONTHLY'!AS210</f>
@@ -41735,9 +41618,8 @@
       </c>
     </row>
     <row r="153" spans="1:26">
-      <c r="A153" s="2">
-        <f>'[3]ESI MONTHLY'!$A211</f>
-        <v>37437</v>
+      <c r="A153" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B153" s="1">
         <f>'[3]ESI MONTHLY'!AS211</f>
@@ -41841,9 +41723,8 @@
       </c>
     </row>
     <row r="154" spans="1:26">
-      <c r="A154" s="2">
-        <f>'[3]ESI MONTHLY'!$A212</f>
-        <v>37468</v>
+      <c r="A154" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="B154" s="1">
         <f>'[3]ESI MONTHLY'!AS212</f>
@@ -41947,9 +41828,8 @@
       </c>
     </row>
     <row r="155" spans="1:26">
-      <c r="A155" s="2">
-        <f>'[3]ESI MONTHLY'!$A213</f>
-        <v>37499</v>
+      <c r="A155" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B155" s="1">
         <f>'[3]ESI MONTHLY'!AS213</f>
@@ -42053,9 +41933,8 @@
       </c>
     </row>
     <row r="156" spans="1:26">
-      <c r="A156" s="2">
-        <f>'[3]ESI MONTHLY'!$A214</f>
-        <v>37529</v>
+      <c r="A156" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B156" s="1">
         <f>'[3]ESI MONTHLY'!AS214</f>
@@ -42159,9 +42038,8 @@
       </c>
     </row>
     <row r="157" spans="1:26">
-      <c r="A157" s="2">
-        <f>'[3]ESI MONTHLY'!$A215</f>
-        <v>37560</v>
+      <c r="A157" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B157" s="1">
         <f>'[3]ESI MONTHLY'!AS215</f>
@@ -42265,9 +42143,8 @@
       </c>
     </row>
     <row r="158" spans="1:26">
-      <c r="A158" s="2">
-        <f>'[3]ESI MONTHLY'!$A216</f>
-        <v>37590</v>
+      <c r="A158" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B158" s="1">
         <f>'[3]ESI MONTHLY'!AS216</f>
@@ -42371,9 +42248,8 @@
       </c>
     </row>
     <row r="159" spans="1:26">
-      <c r="A159" s="2">
-        <f>'[3]ESI MONTHLY'!$A217</f>
-        <v>37621</v>
+      <c r="A159" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B159" s="1">
         <f>'[3]ESI MONTHLY'!AS217</f>
@@ -42477,9 +42353,8 @@
       </c>
     </row>
     <row r="160" spans="1:26">
-      <c r="A160" s="2">
-        <f>'[3]ESI MONTHLY'!$A218</f>
-        <v>37652</v>
+      <c r="A160" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B160" s="1">
         <f>'[3]ESI MONTHLY'!AS218</f>
@@ -42583,9 +42458,8 @@
       </c>
     </row>
     <row r="161" spans="1:26">
-      <c r="A161" s="2">
-        <f>'[3]ESI MONTHLY'!$A219</f>
-        <v>37680</v>
+      <c r="A161" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B161" s="1">
         <f>'[3]ESI MONTHLY'!AS219</f>
@@ -42689,9 +42563,8 @@
       </c>
     </row>
     <row r="162" spans="1:26">
-      <c r="A162" s="2">
-        <f>'[3]ESI MONTHLY'!$A220</f>
-        <v>37711</v>
+      <c r="A162" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B162" s="1">
         <f>'[3]ESI MONTHLY'!AS220</f>
@@ -42795,9 +42668,8 @@
       </c>
     </row>
     <row r="163" spans="1:26">
-      <c r="A163" s="2">
-        <f>'[3]ESI MONTHLY'!$A221</f>
-        <v>37741</v>
+      <c r="A163" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="B163" s="1">
         <f>'[3]ESI MONTHLY'!AS221</f>
@@ -42901,9 +42773,8 @@
       </c>
     </row>
     <row r="164" spans="1:26">
-      <c r="A164" s="2">
-        <f>'[3]ESI MONTHLY'!$A222</f>
-        <v>37772</v>
+      <c r="A164" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="B164" s="1">
         <f>'[3]ESI MONTHLY'!AS222</f>
@@ -43007,9 +42878,8 @@
       </c>
     </row>
     <row r="165" spans="1:26">
-      <c r="A165" s="2">
-        <f>'[3]ESI MONTHLY'!$A223</f>
-        <v>37802</v>
+      <c r="A165" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B165" s="1">
         <f>'[3]ESI MONTHLY'!AS223</f>
@@ -43113,9 +42983,8 @@
       </c>
     </row>
     <row r="166" spans="1:26">
-      <c r="A166" s="2">
-        <f>'[3]ESI MONTHLY'!$A224</f>
-        <v>37833</v>
+      <c r="A166" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B166" s="1">
         <f>'[3]ESI MONTHLY'!AS224</f>
@@ -43219,9 +43088,8 @@
       </c>
     </row>
     <row r="167" spans="1:26">
-      <c r="A167" s="2">
-        <f>'[3]ESI MONTHLY'!$A225</f>
-        <v>37864</v>
+      <c r="A167" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="B167" s="1">
         <f>'[3]ESI MONTHLY'!AS225</f>
@@ -43325,9 +43193,8 @@
       </c>
     </row>
     <row r="168" spans="1:26">
-      <c r="A168" s="2">
-        <f>'[3]ESI MONTHLY'!$A226</f>
-        <v>37894</v>
+      <c r="A168" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B168" s="1">
         <f>'[3]ESI MONTHLY'!AS226</f>
@@ -43431,9 +43298,8 @@
       </c>
     </row>
     <row r="169" spans="1:26">
-      <c r="A169" s="2">
-        <f>'[3]ESI MONTHLY'!$A227</f>
-        <v>37925</v>
+      <c r="A169" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B169" s="1">
         <f>'[3]ESI MONTHLY'!AS227</f>
@@ -43537,9 +43403,8 @@
       </c>
     </row>
     <row r="170" spans="1:26">
-      <c r="A170" s="2">
-        <f>'[3]ESI MONTHLY'!$A228</f>
-        <v>37955</v>
+      <c r="A170" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B170" s="1">
         <f>'[3]ESI MONTHLY'!AS228</f>
@@ -43643,9 +43508,8 @@
       </c>
     </row>
     <row r="171" spans="1:26">
-      <c r="A171" s="2">
-        <f>'[3]ESI MONTHLY'!$A229</f>
-        <v>37986</v>
+      <c r="A171" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B171" s="1">
         <f>'[3]ESI MONTHLY'!AS229</f>
@@ -43749,9 +43613,8 @@
       </c>
     </row>
     <row r="172" spans="1:26">
-      <c r="A172" s="2">
-        <f>'[3]ESI MONTHLY'!$A230</f>
-        <v>38017</v>
+      <c r="A172" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B172" s="1">
         <f>'[3]ESI MONTHLY'!AS230</f>
@@ -43855,9 +43718,8 @@
       </c>
     </row>
     <row r="173" spans="1:26">
-      <c r="A173" s="2">
-        <f>'[3]ESI MONTHLY'!$A231</f>
-        <v>38046</v>
+      <c r="A173" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B173" s="1">
         <f>'[3]ESI MONTHLY'!AS231</f>
@@ -43961,9 +43823,8 @@
       </c>
     </row>
     <row r="174" spans="1:26">
-      <c r="A174" s="2">
-        <f>'[3]ESI MONTHLY'!$A232</f>
-        <v>38077</v>
+      <c r="A174" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="B174" s="1">
         <f>'[3]ESI MONTHLY'!AS232</f>
@@ -44067,9 +43928,8 @@
       </c>
     </row>
     <row r="175" spans="1:26">
-      <c r="A175" s="2">
-        <f>'[3]ESI MONTHLY'!$A233</f>
-        <v>38107</v>
+      <c r="A175" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B175" s="1">
         <f>'[3]ESI MONTHLY'!AS233</f>
@@ -44173,9 +44033,8 @@
       </c>
     </row>
     <row r="176" spans="1:26">
-      <c r="A176" s="2">
-        <f>'[3]ESI MONTHLY'!$A234</f>
-        <v>38138</v>
+      <c r="A176" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="B176" s="1">
         <f>'[3]ESI MONTHLY'!AS234</f>
@@ -44279,9 +44138,8 @@
       </c>
     </row>
     <row r="177" spans="1:26">
-      <c r="A177" s="2">
-        <f>'[3]ESI MONTHLY'!$A235</f>
-        <v>38168</v>
+      <c r="A177" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B177" s="1">
         <f>'[3]ESI MONTHLY'!AS235</f>
@@ -44385,9 +44243,8 @@
       </c>
     </row>
     <row r="178" spans="1:26">
-      <c r="A178" s="2">
-        <f>'[3]ESI MONTHLY'!$A236</f>
-        <v>38199</v>
+      <c r="A178" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B178" s="1">
         <f>'[3]ESI MONTHLY'!AS236</f>
@@ -44491,9 +44348,8 @@
       </c>
     </row>
     <row r="179" spans="1:26">
-      <c r="A179" s="2">
-        <f>'[3]ESI MONTHLY'!$A237</f>
-        <v>38230</v>
+      <c r="A179" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="B179" s="1">
         <f>'[3]ESI MONTHLY'!AS237</f>
@@ -44597,9 +44453,8 @@
       </c>
     </row>
     <row r="180" spans="1:26">
-      <c r="A180" s="2">
-        <f>'[3]ESI MONTHLY'!$A238</f>
-        <v>38260</v>
+      <c r="A180" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B180" s="1">
         <f>'[3]ESI MONTHLY'!AS238</f>
@@ -44703,9 +44558,8 @@
       </c>
     </row>
     <row r="181" spans="1:26">
-      <c r="A181" s="2">
-        <f>'[3]ESI MONTHLY'!$A239</f>
-        <v>38291</v>
+      <c r="A181" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="B181" s="1">
         <f>'[3]ESI MONTHLY'!AS239</f>
@@ -44809,9 +44663,8 @@
       </c>
     </row>
     <row r="182" spans="1:26">
-      <c r="A182" s="2">
-        <f>'[3]ESI MONTHLY'!$A240</f>
-        <v>38321</v>
+      <c r="A182" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B182" s="1">
         <f>'[3]ESI MONTHLY'!AS240</f>
@@ -44915,9 +44768,8 @@
       </c>
     </row>
     <row r="183" spans="1:26">
-      <c r="A183" s="2">
-        <f>'[3]ESI MONTHLY'!$A241</f>
-        <v>38352</v>
+      <c r="A183" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="B183" s="1">
         <f>'[3]ESI MONTHLY'!AS241</f>
@@ -45021,9 +44873,8 @@
       </c>
     </row>
     <row r="184" spans="1:26">
-      <c r="A184" s="2">
-        <f>'[3]ESI MONTHLY'!$A242</f>
-        <v>38383</v>
+      <c r="A184" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="B184" s="1">
         <f>'[3]ESI MONTHLY'!AS242</f>
@@ -45127,9 +44978,8 @@
       </c>
     </row>
     <row r="185" spans="1:26">
-      <c r="A185" s="2">
-        <f>'[3]ESI MONTHLY'!$A243</f>
-        <v>38411</v>
+      <c r="A185" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B185" s="1">
         <f>'[3]ESI MONTHLY'!AS243</f>
@@ -45233,9 +45083,8 @@
       </c>
     </row>
     <row r="186" spans="1:26">
-      <c r="A186" s="2">
-        <f>'[3]ESI MONTHLY'!$A244</f>
-        <v>38442</v>
+      <c r="A186" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="B186" s="1">
         <f>'[3]ESI MONTHLY'!AS244</f>
@@ -45339,9 +45188,8 @@
       </c>
     </row>
     <row r="187" spans="1:26">
-      <c r="A187" s="2">
-        <f>'[3]ESI MONTHLY'!$A245</f>
-        <v>38472</v>
+      <c r="A187" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="B187" s="1">
         <f>'[3]ESI MONTHLY'!AS245</f>
@@ -45445,9 +45293,8 @@
       </c>
     </row>
     <row r="188" spans="1:26">
-      <c r="A188" s="2">
-        <f>'[3]ESI MONTHLY'!$A246</f>
-        <v>38503</v>
+      <c r="A188" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B188" s="1">
         <f>'[3]ESI MONTHLY'!AS246</f>
@@ -45551,9 +45398,8 @@
       </c>
     </row>
     <row r="189" spans="1:26">
-      <c r="A189" s="2">
-        <f>'[3]ESI MONTHLY'!$A247</f>
-        <v>38533</v>
+      <c r="A189" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="B189" s="1">
         <f>'[3]ESI MONTHLY'!AS247</f>
@@ -45657,9 +45503,8 @@
       </c>
     </row>
     <row r="190" spans="1:26">
-      <c r="A190" s="2">
-        <f>'[3]ESI MONTHLY'!$A248</f>
-        <v>38564</v>
+      <c r="A190" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B190" s="1">
         <f>'[3]ESI MONTHLY'!AS248</f>
@@ -45763,9 +45608,8 @@
       </c>
     </row>
     <row r="191" spans="1:26">
-      <c r="A191" s="2">
-        <f>'[3]ESI MONTHLY'!$A249</f>
-        <v>38595</v>
+      <c r="A191" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="B191" s="1">
         <f>'[3]ESI MONTHLY'!AS249</f>
@@ -45869,9 +45713,8 @@
       </c>
     </row>
     <row r="192" spans="1:26">
-      <c r="A192" s="2">
-        <f>'[3]ESI MONTHLY'!$A250</f>
-        <v>38625</v>
+      <c r="A192" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="B192" s="1">
         <f>'[3]ESI MONTHLY'!AS250</f>
@@ -45975,9 +45818,8 @@
       </c>
     </row>
     <row r="193" spans="1:26">
-      <c r="A193" s="2">
-        <f>'[3]ESI MONTHLY'!$A251</f>
-        <v>38656</v>
+      <c r="A193" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="B193" s="1">
         <f>'[3]ESI MONTHLY'!AS251</f>
@@ -46081,9 +45923,8 @@
       </c>
     </row>
     <row r="194" spans="1:26">
-      <c r="A194" s="2">
-        <f>'[3]ESI MONTHLY'!$A252</f>
-        <v>38686</v>
+      <c r="A194" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B194" s="1">
         <f>'[3]ESI MONTHLY'!AS252</f>
@@ -46187,9 +46028,8 @@
       </c>
     </row>
     <row r="195" spans="1:26">
-      <c r="A195" s="2">
-        <f>'[3]ESI MONTHLY'!$A253</f>
-        <v>38717</v>
+      <c r="A195" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B195" s="1">
         <f>'[3]ESI MONTHLY'!AS253</f>
@@ -46293,9 +46133,8 @@
       </c>
     </row>
     <row r="196" spans="1:26">
-      <c r="A196" s="2">
-        <f>'[3]ESI MONTHLY'!$A254</f>
-        <v>38748</v>
+      <c r="A196" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B196" s="1">
         <f>'[3]ESI MONTHLY'!AS254</f>
@@ -46399,9 +46238,8 @@
       </c>
     </row>
     <row r="197" spans="1:26">
-      <c r="A197" s="2">
-        <f>'[3]ESI MONTHLY'!$A255</f>
-        <v>38776</v>
+      <c r="A197" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B197" s="1">
         <f>'[3]ESI MONTHLY'!AS255</f>
@@ -46505,9 +46343,8 @@
       </c>
     </row>
     <row r="198" spans="1:26">
-      <c r="A198" s="2">
-        <f>'[3]ESI MONTHLY'!$A256</f>
-        <v>38807</v>
+      <c r="A198" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B198" s="1">
         <f>'[3]ESI MONTHLY'!AS256</f>
@@ -46611,9 +46448,8 @@
       </c>
     </row>
     <row r="199" spans="1:26">
-      <c r="A199" s="2">
-        <f>'[3]ESI MONTHLY'!$A257</f>
-        <v>38837</v>
+      <c r="A199" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B199" s="1">
         <f>'[3]ESI MONTHLY'!AS257</f>
@@ -46717,9 +46553,8 @@
       </c>
     </row>
     <row r="200" spans="1:26">
-      <c r="A200" s="2">
-        <f>'[3]ESI MONTHLY'!$A258</f>
-        <v>38868</v>
+      <c r="A200" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B200" s="1">
         <f>'[3]ESI MONTHLY'!AS258</f>
@@ -46823,9 +46658,8 @@
       </c>
     </row>
     <row r="201" spans="1:26">
-      <c r="A201" s="2">
-        <f>'[3]ESI MONTHLY'!$A259</f>
-        <v>38898</v>
+      <c r="A201" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B201" s="1">
         <f>'[3]ESI MONTHLY'!AS259</f>
@@ -46929,9 +46763,8 @@
       </c>
     </row>
     <row r="202" spans="1:26">
-      <c r="A202" s="2">
-        <f>'[3]ESI MONTHLY'!$A260</f>
-        <v>38929</v>
+      <c r="A202" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B202" s="1">
         <f>'[3]ESI MONTHLY'!AS260</f>
@@ -47035,9 +46868,8 @@
       </c>
     </row>
     <row r="203" spans="1:26">
-      <c r="A203" s="2">
-        <f>'[3]ESI MONTHLY'!$A261</f>
-        <v>38960</v>
+      <c r="A203" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B203" s="1">
         <f>'[3]ESI MONTHLY'!AS261</f>
@@ -47141,9 +46973,8 @@
       </c>
     </row>
     <row r="204" spans="1:26">
-      <c r="A204" s="2">
-        <f>'[3]ESI MONTHLY'!$A262</f>
-        <v>38990</v>
+      <c r="A204" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B204" s="1">
         <f>'[3]ESI MONTHLY'!AS262</f>
@@ -47247,9 +47078,8 @@
       </c>
     </row>
     <row r="205" spans="1:26">
-      <c r="A205" s="2">
-        <f>'[3]ESI MONTHLY'!$A263</f>
-        <v>39021</v>
+      <c r="A205" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="B205" s="1">
         <f>'[3]ESI MONTHLY'!AS263</f>
@@ -47353,9 +47183,8 @@
       </c>
     </row>
     <row r="206" spans="1:26">
-      <c r="A206" s="2">
-        <f>'[3]ESI MONTHLY'!$A264</f>
-        <v>39051</v>
+      <c r="A206" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B206" s="1">
         <f>'[3]ESI MONTHLY'!AS264</f>
@@ -47459,9 +47288,8 @@
       </c>
     </row>
     <row r="207" spans="1:26">
-      <c r="A207" s="2">
-        <f>'[3]ESI MONTHLY'!$A265</f>
-        <v>39082</v>
+      <c r="A207" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B207" s="1">
         <f>'[3]ESI MONTHLY'!AS265</f>
@@ -47565,9 +47393,8 @@
       </c>
     </row>
     <row r="208" spans="1:26">
-      <c r="A208" s="2">
-        <f>'[3]ESI MONTHLY'!$A266</f>
-        <v>39113</v>
+      <c r="A208" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="B208" s="1">
         <f>'[3]ESI MONTHLY'!AS266</f>
@@ -47671,9 +47498,8 @@
       </c>
     </row>
     <row r="209" spans="1:26">
-      <c r="A209" s="2">
-        <f>'[3]ESI MONTHLY'!$A267</f>
-        <v>39141</v>
+      <c r="A209" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="B209" s="1">
         <f>'[3]ESI MONTHLY'!AS267</f>
@@ -47777,9 +47603,8 @@
       </c>
     </row>
     <row r="210" spans="1:26">
-      <c r="A210" s="2">
-        <f>'[3]ESI MONTHLY'!$A268</f>
-        <v>39172</v>
+      <c r="A210" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B210" s="1">
         <f>'[3]ESI MONTHLY'!AS268</f>
@@ -47883,9 +47708,8 @@
       </c>
     </row>
     <row r="211" spans="1:26">
-      <c r="A211" s="2">
-        <f>'[3]ESI MONTHLY'!$A269</f>
-        <v>39202</v>
+      <c r="A211" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="B211" s="1">
         <f>'[3]ESI MONTHLY'!AS269</f>
@@ -47989,9 +47813,8 @@
       </c>
     </row>
     <row r="212" spans="1:26">
-      <c r="A212" s="2">
-        <f>'[3]ESI MONTHLY'!$A270</f>
-        <v>39233</v>
+      <c r="A212" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B212" s="1">
         <f>'[3]ESI MONTHLY'!AS270</f>
@@ -48095,9 +47918,8 @@
       </c>
     </row>
     <row r="213" spans="1:26">
-      <c r="A213" s="2">
-        <f>'[3]ESI MONTHLY'!$A271</f>
-        <v>39263</v>
+      <c r="A213" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="B213" s="1">
         <f>'[3]ESI MONTHLY'!AS271</f>
@@ -48201,9 +48023,8 @@
       </c>
     </row>
     <row r="214" spans="1:26">
-      <c r="A214" s="2">
-        <f>'[3]ESI MONTHLY'!$A272</f>
-        <v>39294</v>
+      <c r="A214" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="B214" s="1">
         <f>'[3]ESI MONTHLY'!AS272</f>
@@ -48307,9 +48128,8 @@
       </c>
     </row>
     <row r="215" spans="1:26">
-      <c r="A215" s="2">
-        <f>'[3]ESI MONTHLY'!$A273</f>
-        <v>39325</v>
+      <c r="A215" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="B215" s="1">
         <f>'[3]ESI MONTHLY'!AS273</f>
@@ -48413,9 +48233,8 @@
       </c>
     </row>
     <row r="216" spans="1:26">
-      <c r="A216" s="2">
-        <f>'[3]ESI MONTHLY'!$A274</f>
-        <v>39355</v>
+      <c r="A216" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="B216" s="1">
         <f>'[3]ESI MONTHLY'!AS274</f>
@@ -48519,9 +48338,8 @@
       </c>
     </row>
     <row r="217" spans="1:26">
-      <c r="A217" s="2">
-        <f>'[3]ESI MONTHLY'!$A275</f>
-        <v>39386</v>
+      <c r="A217" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="B217" s="1">
         <f>'[3]ESI MONTHLY'!AS275</f>
@@ -48625,9 +48443,8 @@
       </c>
     </row>
     <row r="218" spans="1:26">
-      <c r="A218" s="2">
-        <f>'[3]ESI MONTHLY'!$A276</f>
-        <v>39416</v>
+      <c r="A218" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B218" s="1">
         <f>'[3]ESI MONTHLY'!AS276</f>
@@ -48731,9 +48548,8 @@
       </c>
     </row>
     <row r="219" spans="1:26">
-      <c r="A219" s="2">
-        <f>'[3]ESI MONTHLY'!$A277</f>
-        <v>39447</v>
+      <c r="A219" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B219" s="1">
         <f>'[3]ESI MONTHLY'!AS277</f>
@@ -48837,9 +48653,8 @@
       </c>
     </row>
     <row r="220" spans="1:26">
-      <c r="A220" s="2">
-        <f>'[3]ESI MONTHLY'!$A278</f>
-        <v>39478</v>
+      <c r="A220" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="B220" s="1">
         <f>'[3]ESI MONTHLY'!AS278</f>
@@ -48943,9 +48758,8 @@
       </c>
     </row>
     <row r="221" spans="1:26">
-      <c r="A221" s="2">
-        <f>'[3]ESI MONTHLY'!$A279</f>
-        <v>39507</v>
+      <c r="A221" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="B221" s="1">
         <f>'[3]ESI MONTHLY'!AS279</f>
@@ -49049,9 +48863,8 @@
       </c>
     </row>
     <row r="222" spans="1:26">
-      <c r="A222" s="2">
-        <f>'[3]ESI MONTHLY'!$A280</f>
-        <v>39538</v>
+      <c r="A222" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="B222" s="1">
         <f>'[3]ESI MONTHLY'!AS280</f>
@@ -49155,9 +48968,8 @@
       </c>
     </row>
     <row r="223" spans="1:26">
-      <c r="A223" s="2">
-        <f>'[3]ESI MONTHLY'!$A281</f>
-        <v>39568</v>
+      <c r="A223" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="B223" s="1">
         <f>'[3]ESI MONTHLY'!AS281</f>
@@ -49261,9 +49073,8 @@
       </c>
     </row>
     <row r="224" spans="1:26">
-      <c r="A224" s="2">
-        <f>'[3]ESI MONTHLY'!$A282</f>
-        <v>39599</v>
+      <c r="A224" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B224" s="1">
         <f>'[3]ESI MONTHLY'!AS282</f>
@@ -49367,9 +49178,8 @@
       </c>
     </row>
     <row r="225" spans="1:26">
-      <c r="A225" s="2">
-        <f>'[3]ESI MONTHLY'!$A283</f>
-        <v>39629</v>
+      <c r="A225" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="B225" s="1">
         <f>'[3]ESI MONTHLY'!AS283</f>
@@ -49473,9 +49283,8 @@
       </c>
     </row>
     <row r="226" spans="1:26">
-      <c r="A226" s="2">
-        <f>'[3]ESI MONTHLY'!$A284</f>
-        <v>39660</v>
+      <c r="A226" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B226" s="1">
         <f>'[3]ESI MONTHLY'!AS284</f>
@@ -49579,9 +49388,8 @@
       </c>
     </row>
     <row r="227" spans="1:26">
-      <c r="A227" s="2">
-        <f>'[3]ESI MONTHLY'!$A285</f>
-        <v>39691</v>
+      <c r="A227" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="B227" s="1">
         <f>'[3]ESI MONTHLY'!AS285</f>
@@ -49685,9 +49493,8 @@
       </c>
     </row>
     <row r="228" spans="1:26">
-      <c r="A228" s="2">
-        <f>'[3]ESI MONTHLY'!$A286</f>
-        <v>39721</v>
+      <c r="A228" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="B228" s="1">
         <f>'[3]ESI MONTHLY'!AS286</f>
@@ -49791,9 +49598,8 @@
       </c>
     </row>
     <row r="229" spans="1:26">
-      <c r="A229" s="2">
-        <f>'[3]ESI MONTHLY'!$A287</f>
-        <v>39752</v>
+      <c r="A229" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="B229" s="1">
         <f>'[3]ESI MONTHLY'!AS287</f>
@@ -49897,9 +49703,8 @@
       </c>
     </row>
     <row r="230" spans="1:26">
-      <c r="A230" s="2">
-        <f>'[3]ESI MONTHLY'!$A288</f>
-        <v>39782</v>
+      <c r="A230" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B230" s="1">
         <f>'[3]ESI MONTHLY'!AS288</f>
@@ -50003,9 +49808,8 @@
       </c>
     </row>
     <row r="231" spans="1:26">
-      <c r="A231" s="2">
-        <f>'[3]ESI MONTHLY'!$A289</f>
-        <v>39813</v>
+      <c r="A231" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="B231" s="1">
         <f>'[3]ESI MONTHLY'!AS289</f>
@@ -50109,9 +49913,8 @@
       </c>
     </row>
     <row r="232" spans="1:26">
-      <c r="A232" s="2">
-        <f>'[3]ESI MONTHLY'!$A290</f>
-        <v>39844</v>
+      <c r="A232" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="B232" s="1">
         <f>'[3]ESI MONTHLY'!AS290</f>
@@ -50215,9 +50018,8 @@
       </c>
     </row>
     <row r="233" spans="1:26">
-      <c r="A233" s="2">
-        <f>'[3]ESI MONTHLY'!$A291</f>
-        <v>39872</v>
+      <c r="A233" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B233" s="1">
         <f>'[3]ESI MONTHLY'!AS291</f>
@@ -50321,9 +50123,8 @@
       </c>
     </row>
     <row r="234" spans="1:26">
-      <c r="A234" s="2">
-        <f>'[3]ESI MONTHLY'!$A292</f>
-        <v>39903</v>
+      <c r="A234" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B234" s="1">
         <f>'[3]ESI MONTHLY'!AS292</f>
@@ -50427,9 +50228,8 @@
       </c>
     </row>
     <row r="235" spans="1:26">
-      <c r="A235" s="2">
-        <f>'[3]ESI MONTHLY'!$A293</f>
-        <v>39933</v>
+      <c r="A235" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="B235" s="1">
         <f>'[3]ESI MONTHLY'!AS293</f>
@@ -50533,9 +50333,8 @@
       </c>
     </row>
     <row r="236" spans="1:26">
-      <c r="A236" s="2">
-        <f>'[3]ESI MONTHLY'!$A294</f>
-        <v>39964</v>
+      <c r="A236" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="B236" s="1">
         <f>'[3]ESI MONTHLY'!AS294</f>
@@ -50639,9 +50438,8 @@
       </c>
     </row>
     <row r="237" spans="1:26">
-      <c r="A237" s="2">
-        <f>'[3]ESI MONTHLY'!$A295</f>
-        <v>39994</v>
+      <c r="A237" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="B237" s="1">
         <f>'[3]ESI MONTHLY'!AS295</f>
@@ -50745,9 +50543,8 @@
       </c>
     </row>
     <row r="238" spans="1:26">
-      <c r="A238" s="2">
-        <f>'[3]ESI MONTHLY'!$A296</f>
-        <v>40025</v>
+      <c r="A238" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="B238" s="1">
         <f>'[3]ESI MONTHLY'!AS296</f>
@@ -50851,9 +50648,8 @@
       </c>
     </row>
     <row r="239" spans="1:26">
-      <c r="A239" s="2">
-        <f>'[3]ESI MONTHLY'!$A297</f>
-        <v>40056</v>
+      <c r="A239" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B239" s="1">
         <f>'[3]ESI MONTHLY'!AS297</f>
@@ -50957,9 +50753,8 @@
       </c>
     </row>
     <row r="240" spans="1:26">
-      <c r="A240" s="2">
-        <f>'[3]ESI MONTHLY'!$A298</f>
-        <v>40086</v>
+      <c r="A240" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="B240" s="1">
         <f>'[3]ESI MONTHLY'!AS298</f>
@@ -51063,9 +50858,8 @@
       </c>
     </row>
     <row r="241" spans="1:26">
-      <c r="A241" s="2">
-        <f>'[3]ESI MONTHLY'!$A299</f>
-        <v>40117</v>
+      <c r="A241" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="B241" s="1">
         <f>'[3]ESI MONTHLY'!AS299</f>
@@ -51169,9 +50963,8 @@
       </c>
     </row>
     <row r="242" spans="1:26">
-      <c r="A242" s="2">
-        <f>'[3]ESI MONTHLY'!$A300</f>
-        <v>40147</v>
+      <c r="A242" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B242" s="1">
         <f>'[3]ESI MONTHLY'!AS300</f>
@@ -51275,9 +51068,8 @@
       </c>
     </row>
     <row r="243" spans="1:26">
-      <c r="A243" s="2">
-        <f>'[3]ESI MONTHLY'!$A301</f>
-        <v>40178</v>
+      <c r="A243" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B243" s="1">
         <f>'[3]ESI MONTHLY'!AS301</f>
@@ -51381,9 +51173,8 @@
       </c>
     </row>
     <row r="244" spans="1:26">
-      <c r="A244" s="2">
-        <f>'[3]ESI MONTHLY'!$A302</f>
-        <v>40209</v>
+      <c r="A244" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B244" s="1">
         <f>'[3]ESI MONTHLY'!AS302</f>
@@ -51487,9 +51278,8 @@
       </c>
     </row>
     <row r="245" spans="1:26">
-      <c r="A245" s="2">
-        <f>'[3]ESI MONTHLY'!$A303</f>
-        <v>40237</v>
+      <c r="A245" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="B245" s="1">
         <f>'[3]ESI MONTHLY'!AS303</f>
@@ -51593,9 +51383,8 @@
       </c>
     </row>
     <row r="246" spans="1:26">
-      <c r="A246" s="2">
-        <f>'[3]ESI MONTHLY'!$A304</f>
-        <v>40268</v>
+      <c r="A246" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="B246" s="1">
         <f>'[3]ESI MONTHLY'!AS304</f>
@@ -51699,9 +51488,8 @@
       </c>
     </row>
     <row r="247" spans="1:26">
-      <c r="A247" s="2">
-        <f>'[3]ESI MONTHLY'!$A305</f>
-        <v>40298</v>
+      <c r="A247" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="B247" s="1">
         <f>'[3]ESI MONTHLY'!AS305</f>
@@ -51805,9 +51593,8 @@
       </c>
     </row>
     <row r="248" spans="1:26">
-      <c r="A248" s="2">
-        <f>'[3]ESI MONTHLY'!$A306</f>
-        <v>40329</v>
+      <c r="A248" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="B248" s="1">
         <f>'[3]ESI MONTHLY'!AS306</f>
@@ -51911,9 +51698,8 @@
       </c>
     </row>
     <row r="249" spans="1:26">
-      <c r="A249" s="2">
-        <f>'[3]ESI MONTHLY'!$A307</f>
-        <v>40359</v>
+      <c r="A249" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="B249" s="1">
         <f>'[3]ESI MONTHLY'!AS307</f>
@@ -52017,9 +51803,8 @@
       </c>
     </row>
     <row r="250" spans="1:26">
-      <c r="A250" s="2">
-        <f>'[3]ESI MONTHLY'!$A308</f>
-        <v>40390</v>
+      <c r="A250" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B250" s="1">
         <f>'[3]ESI MONTHLY'!AS308</f>
@@ -52123,9 +51908,8 @@
       </c>
     </row>
     <row r="251" spans="1:26">
-      <c r="A251" s="2">
-        <f>'[3]ESI MONTHLY'!$A309</f>
-        <v>40421</v>
+      <c r="A251" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B251" s="1">
         <f>'[3]ESI MONTHLY'!AS309</f>
@@ -52229,9 +52013,8 @@
       </c>
     </row>
     <row r="252" spans="1:26">
-      <c r="A252" s="2">
-        <f>'[3]ESI MONTHLY'!$A310</f>
-        <v>40451</v>
+      <c r="A252" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B252" s="1">
         <f>'[3]ESI MONTHLY'!AS310</f>
@@ -52335,9 +52118,8 @@
       </c>
     </row>
     <row r="253" spans="1:26">
-      <c r="A253" s="2">
-        <f>'[3]ESI MONTHLY'!$A311</f>
-        <v>40482</v>
+      <c r="A253" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="B253" s="1">
         <f>'[3]ESI MONTHLY'!AS311</f>
@@ -52441,9 +52223,8 @@
       </c>
     </row>
     <row r="254" spans="1:26">
-      <c r="A254" s="2">
-        <f>'[3]ESI MONTHLY'!$A312</f>
-        <v>40512</v>
+      <c r="A254" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="B254" s="1">
         <f>'[3]ESI MONTHLY'!AS312</f>
@@ -52547,9 +52328,8 @@
       </c>
     </row>
     <row r="255" spans="1:26">
-      <c r="A255" s="2">
-        <f>'[3]ESI MONTHLY'!$A313</f>
-        <v>40543</v>
+      <c r="A255" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="B255" s="1">
         <f>'[3]ESI MONTHLY'!AS313</f>
@@ -52653,9 +52433,8 @@
       </c>
     </row>
     <row r="256" spans="1:26">
-      <c r="A256" s="2">
-        <f>'[3]ESI MONTHLY'!$A314</f>
-        <v>40574</v>
+      <c r="A256" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B256" s="1">
         <f>'[3]ESI MONTHLY'!AS314</f>
@@ -52759,9 +52538,8 @@
       </c>
     </row>
     <row r="257" spans="1:26">
-      <c r="A257" s="2">
-        <f>'[3]ESI MONTHLY'!$A315</f>
-        <v>40602</v>
+      <c r="A257" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="B257" s="1">
         <f>'[3]ESI MONTHLY'!AS315</f>
@@ -52865,9 +52643,8 @@
       </c>
     </row>
     <row r="258" spans="1:26">
-      <c r="A258" s="2">
-        <f>'[3]ESI MONTHLY'!$A316</f>
-        <v>40633</v>
+      <c r="A258" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="B258" s="1">
         <f>'[3]ESI MONTHLY'!AS316</f>
@@ -52971,9 +52748,8 @@
       </c>
     </row>
     <row r="259" spans="1:26">
-      <c r="A259" s="2">
-        <f>'[3]ESI MONTHLY'!$A317</f>
-        <v>40663</v>
+      <c r="A259" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="B259" s="1">
         <f>'[3]ESI MONTHLY'!AS317</f>
@@ -53077,9 +52853,8 @@
       </c>
     </row>
     <row r="260" spans="1:26">
-      <c r="A260" s="2">
-        <f>'[3]ESI MONTHLY'!$A318</f>
-        <v>40694</v>
+      <c r="A260" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B260" s="1">
         <f>'[3]ESI MONTHLY'!AS318</f>
@@ -53183,9 +52958,8 @@
       </c>
     </row>
     <row r="261" spans="1:26">
-      <c r="A261" s="2">
-        <f>'[3]ESI MONTHLY'!$A319</f>
-        <v>40724</v>
+      <c r="A261" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B261" s="1">
         <f>'[3]ESI MONTHLY'!AS319</f>
@@ -53289,9 +53063,8 @@
       </c>
     </row>
     <row r="262" spans="1:26">
-      <c r="A262" s="2">
-        <f>'[3]ESI MONTHLY'!$A320</f>
-        <v>40755</v>
+      <c r="A262" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="B262" s="1">
         <f>'[3]ESI MONTHLY'!AS320</f>
@@ -53395,9 +53168,8 @@
       </c>
     </row>
     <row r="263" spans="1:26">
-      <c r="A263" s="2">
-        <f>'[3]ESI MONTHLY'!$A321</f>
-        <v>40786</v>
+      <c r="A263" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B263" s="1">
         <f>'[3]ESI MONTHLY'!AS321</f>
@@ -53501,9 +53273,8 @@
       </c>
     </row>
     <row r="264" spans="1:26">
-      <c r="A264" s="2">
-        <f>'[3]ESI MONTHLY'!$A322</f>
-        <v>40816</v>
+      <c r="A264" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="B264" s="1">
         <f>'[3]ESI MONTHLY'!AS322</f>
@@ -53607,9 +53378,8 @@
       </c>
     </row>
     <row r="265" spans="1:26">
-      <c r="A265" s="2">
-        <f>'[3]ESI MONTHLY'!$A323</f>
-        <v>40847</v>
+      <c r="A265" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="B265" s="1">
         <f>'[3]ESI MONTHLY'!AS323</f>
@@ -53713,9 +53483,8 @@
       </c>
     </row>
     <row r="266" spans="1:26">
-      <c r="A266" s="2">
-        <f>'[3]ESI MONTHLY'!$A324</f>
-        <v>40877</v>
+      <c r="A266" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="B266" s="1">
         <f>'[3]ESI MONTHLY'!AS324</f>
@@ -53819,9 +53588,8 @@
       </c>
     </row>
     <row r="267" spans="1:26">
-      <c r="A267" s="2">
-        <f>'[3]ESI MONTHLY'!$A325</f>
-        <v>40908</v>
+      <c r="A267" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="B267" s="1">
         <f>'[3]ESI MONTHLY'!AS325</f>
@@ -53925,9 +53693,8 @@
       </c>
     </row>
     <row r="268" spans="1:26">
-      <c r="A268" s="2">
-        <f>'[3]ESI MONTHLY'!$A326</f>
-        <v>40939</v>
+      <c r="A268" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B268" s="1">
         <f>'[3]ESI MONTHLY'!AS326</f>
@@ -54031,9 +53798,8 @@
       </c>
     </row>
     <row r="269" spans="1:26">
-      <c r="A269" s="2">
-        <f>'[3]ESI MONTHLY'!$A327</f>
-        <v>40968</v>
+      <c r="A269" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="B269" s="1">
         <f>'[3]ESI MONTHLY'!AS327</f>
@@ -54137,9 +53903,8 @@
       </c>
     </row>
     <row r="270" spans="1:26">
-      <c r="A270" s="2">
-        <f>'[3]ESI MONTHLY'!$A328</f>
-        <v>40999</v>
+      <c r="A270" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="B270" s="1">
         <f>'[3]ESI MONTHLY'!AS328</f>
@@ -54243,9 +54008,8 @@
       </c>
     </row>
     <row r="271" spans="1:26">
-      <c r="A271" s="2">
-        <f>'[3]ESI MONTHLY'!$A329</f>
-        <v>41029</v>
+      <c r="A271" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="B271" s="1">
         <f>'[3]ESI MONTHLY'!AS329</f>
@@ -54349,9 +54113,8 @@
       </c>
     </row>
     <row r="272" spans="1:26">
-      <c r="A272" s="2">
-        <f>'[3]ESI MONTHLY'!$A330</f>
-        <v>41060</v>
+      <c r="A272" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B272" s="1">
         <f>'[3]ESI MONTHLY'!AS330</f>
@@ -54455,9 +54218,8 @@
       </c>
     </row>
     <row r="273" spans="1:26">
-      <c r="A273" s="2">
-        <f>'[3]ESI MONTHLY'!$A331</f>
-        <v>41090</v>
+      <c r="A273" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="B273" s="1">
         <f>'[3]ESI MONTHLY'!AS331</f>
@@ -54561,9 +54323,8 @@
       </c>
     </row>
     <row r="274" spans="1:26">
-      <c r="A274" s="2">
-        <f>'[3]ESI MONTHLY'!$A332</f>
-        <v>41121</v>
+      <c r="A274" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="B274" s="1">
         <f>'[3]ESI MONTHLY'!AS332</f>
@@ -54667,9 +54428,8 @@
       </c>
     </row>
     <row r="275" spans="1:26">
-      <c r="A275" s="2">
-        <f>'[3]ESI MONTHLY'!$A333</f>
-        <v>41152</v>
+      <c r="A275" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="B275" s="1">
         <f>'[3]ESI MONTHLY'!AS333</f>
@@ -54773,9 +54533,8 @@
       </c>
     </row>
     <row r="276" spans="1:26">
-      <c r="A276" s="2">
-        <f>'[3]ESI MONTHLY'!$A334</f>
-        <v>41182</v>
+      <c r="A276" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="B276" s="1">
         <f>'[3]ESI MONTHLY'!AS334</f>
@@ -54879,9 +54638,8 @@
       </c>
     </row>
     <row r="277" spans="1:26">
-      <c r="A277" s="2">
-        <f>'[3]ESI MONTHLY'!$A335</f>
-        <v>41213</v>
+      <c r="A277" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="B277" s="1">
         <f>'[3]ESI MONTHLY'!AS335</f>
@@ -54985,9 +54743,8 @@
       </c>
     </row>
     <row r="278" spans="1:26">
-      <c r="A278" s="2">
-        <f>'[3]ESI MONTHLY'!$A336</f>
-        <v>41243</v>
+      <c r="A278" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="B278" s="1">
         <f>'[3]ESI MONTHLY'!AS336</f>
@@ -55091,9 +54848,8 @@
       </c>
     </row>
     <row r="279" spans="1:26">
-      <c r="A279" s="2">
-        <f>'[3]ESI MONTHLY'!$A337</f>
-        <v>41274</v>
+      <c r="A279" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="B279" s="1">
         <f>'[3]ESI MONTHLY'!AS337</f>
@@ -55197,9 +54953,8 @@
       </c>
     </row>
     <row r="280" spans="1:26">
-      <c r="A280" s="2">
-        <f>'[3]ESI MONTHLY'!$A338</f>
-        <v>41305</v>
+      <c r="A280" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="B280" s="1">
         <f>'[3]ESI MONTHLY'!AS338</f>
@@ -55303,9 +55058,8 @@
       </c>
     </row>
     <row r="281" spans="1:26">
-      <c r="A281" s="2">
-        <f>'[3]ESI MONTHLY'!$A339</f>
-        <v>41333</v>
+      <c r="A281" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="B281" s="1">
         <f>'[3]ESI MONTHLY'!AS339</f>
@@ -55409,9 +55163,8 @@
       </c>
     </row>
     <row r="282" spans="1:26">
-      <c r="A282" s="2">
-        <f>'[3]ESI MONTHLY'!$A340</f>
-        <v>41364</v>
+      <c r="A282" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="B282" s="1">
         <f>'[3]ESI MONTHLY'!AS340</f>
@@ -55515,9 +55268,8 @@
       </c>
     </row>
     <row r="283" spans="1:26">
-      <c r="A283" s="2">
-        <f>'[3]ESI MONTHLY'!$A341</f>
-        <v>41394</v>
+      <c r="A283" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="B283" s="1">
         <f>'[3]ESI MONTHLY'!AS341</f>
@@ -55621,9 +55373,8 @@
       </c>
     </row>
     <row r="284" spans="1:26">
-      <c r="A284" s="2">
-        <f>'[3]ESI MONTHLY'!$A342</f>
-        <v>41425</v>
+      <c r="A284" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="B284" s="1">
         <f>'[3]ESI MONTHLY'!AS342</f>
@@ -55727,9 +55478,8 @@
       </c>
     </row>
     <row r="285" spans="1:26">
-      <c r="A285" s="2">
-        <f>'[3]ESI MONTHLY'!$A343</f>
-        <v>41455</v>
+      <c r="A285" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="B285" s="1">
         <f>'[3]ESI MONTHLY'!AS343</f>
@@ -55833,9 +55583,8 @@
       </c>
     </row>
     <row r="286" spans="1:26">
-      <c r="A286" s="2">
-        <f>'[3]ESI MONTHLY'!$A344</f>
-        <v>41486</v>
+      <c r="A286" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="B286" s="1">
         <f>'[3]ESI MONTHLY'!AS344</f>
@@ -55939,9 +55688,8 @@
       </c>
     </row>
     <row r="287" spans="1:26">
-      <c r="A287" s="2">
-        <f>'[3]ESI MONTHLY'!$A345</f>
-        <v>41517</v>
+      <c r="A287" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="B287" s="1">
         <f>'[3]ESI MONTHLY'!AS345</f>
@@ -56045,9 +55793,8 @@
       </c>
     </row>
     <row r="288" spans="1:26">
-      <c r="A288" s="2">
-        <f>'[3]ESI MONTHLY'!$A346</f>
-        <v>41547</v>
+      <c r="A288" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="B288" s="1">
         <f>'[3]ESI MONTHLY'!AS346</f>
@@ -56151,9 +55898,8 @@
       </c>
     </row>
     <row r="289" spans="1:26">
-      <c r="A289" s="2">
-        <f>'[3]ESI MONTHLY'!$A347</f>
-        <v>41578</v>
+      <c r="A289" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="B289" s="1">
         <f>'[3]ESI MONTHLY'!AS347</f>
@@ -56257,9 +56003,8 @@
       </c>
     </row>
     <row r="290" spans="1:26">
-      <c r="A290" s="2">
-        <f>'[3]ESI MONTHLY'!$A348</f>
-        <v>41608</v>
+      <c r="A290" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="B290" s="1">
         <f>'[3]ESI MONTHLY'!AS348</f>
@@ -56363,9 +56108,8 @@
       </c>
     </row>
     <row r="291" spans="1:26">
-      <c r="A291" s="2">
-        <f>'[3]ESI MONTHLY'!$A349</f>
-        <v>41639</v>
+      <c r="A291" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="B291" s="1">
         <f>'[3]ESI MONTHLY'!AS349</f>
@@ -56469,9 +56213,8 @@
       </c>
     </row>
     <row r="292" spans="1:26">
-      <c r="A292" s="2">
-        <f>'[3]ESI MONTHLY'!$A350</f>
-        <v>41670</v>
+      <c r="A292" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="B292" s="1">
         <f>'[3]ESI MONTHLY'!AS350</f>
@@ -56575,9 +56318,8 @@
       </c>
     </row>
     <row r="293" spans="1:26">
-      <c r="A293" s="2">
-        <f>'[3]ESI MONTHLY'!$A351</f>
-        <v>41698</v>
+      <c r="A293" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="B293" s="1">
         <f>'[3]ESI MONTHLY'!AS351</f>
@@ -56681,9 +56423,8 @@
       </c>
     </row>
     <row r="294" spans="1:26">
-      <c r="A294" s="2">
-        <f>'[3]ESI MONTHLY'!$A352</f>
-        <v>41729</v>
+      <c r="A294" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="B294" s="1">
         <f>'[3]ESI MONTHLY'!AS352</f>
@@ -56787,9 +56528,8 @@
       </c>
     </row>
     <row r="295" spans="1:26">
-      <c r="A295" s="2">
-        <f>'[3]ESI MONTHLY'!$A353</f>
-        <v>41759</v>
+      <c r="A295" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="B295" s="1">
         <f>'[3]ESI MONTHLY'!AS353</f>
@@ -56893,9 +56633,8 @@
       </c>
     </row>
     <row r="296" spans="1:26">
-      <c r="A296" s="2">
-        <f>'[3]ESI MONTHLY'!$A354</f>
-        <v>41790</v>
+      <c r="A296" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B296" s="1">
         <f>'[3]ESI MONTHLY'!AS354</f>
@@ -56999,9 +56738,8 @@
       </c>
     </row>
     <row r="297" spans="1:26">
-      <c r="A297" s="2">
-        <f>'[3]ESI MONTHLY'!$A355</f>
-        <v>41820</v>
+      <c r="A297" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="B297" s="1">
         <f>'[3]ESI MONTHLY'!AS355</f>
@@ -57105,9 +56843,8 @@
       </c>
     </row>
     <row r="298" spans="1:26">
-      <c r="A298" s="2">
-        <f>'[3]ESI MONTHLY'!$A356</f>
-        <v>41851</v>
+      <c r="A298" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="B298" s="1">
         <f>'[3]ESI MONTHLY'!AS356</f>
@@ -57211,9 +56948,8 @@
       </c>
     </row>
     <row r="299" spans="1:26">
-      <c r="A299" s="2">
-        <f>'[3]ESI MONTHLY'!$A357</f>
-        <v>41882</v>
+      <c r="A299" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="B299" s="1">
         <f>'[3]ESI MONTHLY'!AS357</f>
@@ -57317,9 +57053,8 @@
       </c>
     </row>
     <row r="300" spans="1:26">
-      <c r="A300" s="2">
-        <f>'[3]ESI MONTHLY'!$A358</f>
-        <v>41912</v>
+      <c r="A300" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="B300" s="1">
         <f>'[3]ESI MONTHLY'!AS358</f>
@@ -57423,9 +57158,8 @@
       </c>
     </row>
     <row r="301" spans="1:26">
-      <c r="A301" s="2">
-        <f>'[3]ESI MONTHLY'!$A359</f>
-        <v>41943</v>
+      <c r="A301" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="B301" s="1">
         <f>'[3]ESI MONTHLY'!AS359</f>
@@ -57529,9 +57263,8 @@
       </c>
     </row>
     <row r="302" spans="1:26">
-      <c r="A302" s="2">
-        <f>'[3]ESI MONTHLY'!$A360</f>
-        <v>41973</v>
+      <c r="A302" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="B302" s="1">
         <f>'[3]ESI MONTHLY'!AS360</f>
@@ -57635,9 +57368,8 @@
       </c>
     </row>
     <row r="303" spans="1:26">
-      <c r="A303" s="2">
-        <f>'[3]ESI MONTHLY'!$A361</f>
-        <v>42004</v>
+      <c r="A303" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B303" s="1">
         <f>'[3]ESI MONTHLY'!AS361</f>
@@ -57741,9 +57473,8 @@
       </c>
     </row>
     <row r="304" spans="1:26">
-      <c r="A304" s="2">
-        <f>'[3]ESI MONTHLY'!$A362</f>
-        <v>42035</v>
+      <c r="A304" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="B304" s="1">
         <f>'[3]ESI MONTHLY'!AS362</f>
@@ -57847,9 +57578,8 @@
       </c>
     </row>
     <row r="305" spans="1:26">
-      <c r="A305" s="2">
-        <f>'[3]ESI MONTHLY'!$A363</f>
-        <v>42063</v>
+      <c r="A305" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="B305" s="1">
         <f>'[3]ESI MONTHLY'!AS363</f>
@@ -57953,7 +57683,9 @@
       </c>
     </row>
     <row r="306" spans="1:26">
-      <c r="A306" s="2"/>
+      <c r="A306" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -57961,6 +57693,51 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
     </row>
+    <row r="307" spans="1:26">
+      <c r="A307" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="308" spans="1:26">
+      <c r="A308" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="309" spans="1:26">
+      <c r="A309" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="310" spans="1:26">
+      <c r="A310" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="311" spans="1:26">
+      <c r="A311" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26">
+      <c r="A312" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26">
+      <c r="A313" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26">
+      <c r="A314" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26">
+      <c r="A315" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
